--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F070469-0C1F-4F3E-A45D-86BB9DCC67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D410E-8F72-4130-9603-507C7A2A1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8675" yWindow="190" windowWidth="10435" windowHeight="10070" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4733,17 +4733,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4751,499 +4751,499 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B14" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B20" s="34" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B33" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B35" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B40" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B60" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B73" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B76" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B79" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B84" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B90" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B101" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B102" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B112" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B116" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B117" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B123" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B124" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B125" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B126" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B127" t="s">
         <v>55</v>
       </c>
@@ -5267,18 +5267,18 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="9" width="11.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.40625" customWidth="1"/>
+    <col min="3" max="9" width="11.54296875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>743.5886494688923</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>14.614802219298447</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -5460,12 +5460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>129</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>13.150652503793626</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -5647,17 +5647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>129</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>3.2526122463528718E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2.1728250476622042E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -5860,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.7230904647520633E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -6106,12 +6106,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -7190,12 +7190,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -8270,16 +8270,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -9337,12 +9337,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -10421,12 +10421,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -11505,12 +11505,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12589,12 +12589,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -13673,12 +13673,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -14757,12 +14757,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -15836,9 +15836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15936,27 +15936,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22188,12 +22188,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -23269,15 +23269,15 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -23422,127 +23422,127 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Data!I80</f>
-        <v>0.10909682119561298</v>
+        <f>Data!I87</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="E2">
-        <f>Data!J80</f>
-        <v>0.19781611144141825</v>
+        <f>Data!J87</f>
+        <v>0.23792530586934735</v>
       </c>
       <c r="F2">
-        <f>Data!K80</f>
-        <v>0.33181222783183389</v>
+        <f>Data!K87</f>
+        <v>0.36522161644024215</v>
       </c>
       <c r="G2">
-        <f>Data!L80</f>
-        <v>0.5</v>
+        <f>Data!L87</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H2">
-        <f>Data!M80</f>
-        <v>0.66818777216816616</v>
+        <f>Data!M87</f>
+        <v>0.68477838355975784</v>
       </c>
       <c r="I2">
-        <f>Data!N80</f>
-        <v>0.80218388855858169</v>
+        <f>Data!N87</f>
+        <v>0.81207469413065259</v>
       </c>
       <c r="J2">
-        <f>Data!O80</f>
-        <v>0.89090317880438707</v>
+        <f>Data!O87</f>
+        <v>0.89635801986416774</v>
       </c>
       <c r="K2">
-        <f>Data!P80</f>
-        <v>0.94267582410113127</v>
+        <f>Data!P87</f>
+        <v>0.94554203289607475</v>
       </c>
       <c r="L2">
-        <f>Data!Q80</f>
-        <v>0.97068776924864364</v>
+        <f>Data!Q87</f>
+        <v>0.97215338078621139</v>
       </c>
       <c r="M2">
-        <f>Data!R80</f>
-        <v>0.98522596830672693</v>
+        <f>Data!R87</f>
+        <v>0.98596466989139064</v>
       </c>
       <c r="N2">
-        <f>Data!S80</f>
-        <v>0.99260845865571812</v>
+        <f>Data!S87</f>
+        <v>0.9929780357229322</v>
       </c>
       <c r="O2">
-        <f>Data!T80</f>
-        <v>0.99631576010056411</v>
+        <f>Data!T87</f>
+        <v>0.99649997209553587</v>
       </c>
       <c r="P2">
-        <f>Data!U80</f>
-        <v>0.99816706105750719</v>
+        <f>Data!U87</f>
+        <v>0.9982587080046319</v>
       </c>
       <c r="Q2">
-        <f>Data!V80</f>
-        <v>0.9990889488055994</v>
+        <f>Data!V87</f>
+        <v>0.99913450136531945</v>
       </c>
       <c r="R2">
-        <f>Data!W80</f>
-        <v>0.9995473777767595</v>
+        <f>Data!W87</f>
+        <v>0.99957000888792158</v>
       </c>
       <c r="S2">
-        <f>Data!X80</f>
-        <v>0.99977518322976666</v>
+        <f>Data!X87</f>
+        <v>0.99978642406827833</v>
       </c>
       <c r="T2">
-        <f>Data!Y80</f>
-        <v>0.99988834665937043</v>
+        <f>Data!Y87</f>
+        <v>0.99989392932640198</v>
       </c>
       <c r="U2">
-        <f>Data!Z80</f>
-        <v>0.99994455147527717</v>
+        <f>Data!Z87</f>
+        <v>0.99994732390151331</v>
       </c>
       <c r="V2">
-        <f>Data!AA80</f>
-        <v>0.99997246430888531</v>
+        <f>Data!AA87</f>
+        <v>0.99997384109344112</v>
       </c>
       <c r="W2">
-        <f>Data!AB80</f>
-        <v>0.99998632599091541</v>
+        <f>Data!AB87</f>
+        <v>0.99998700969136967</v>
       </c>
       <c r="X2">
-        <f>Data!AC80</f>
-        <v>0.99999320964130201</v>
+        <f>Data!AC87</f>
+        <v>0.99999354915923688</v>
       </c>
       <c r="Y2">
-        <f>Data!AD80</f>
-        <v>0.99999662799613631</v>
+        <f>Data!AD87</f>
+        <v>0.99999679659632945</v>
       </c>
       <c r="Z2">
-        <f>Data!AE80</f>
-        <v>0.99999832550959444</v>
+        <f>Data!AE87</f>
+        <v>0.99999840923411476</v>
       </c>
       <c r="AA2">
-        <f>Data!AF80</f>
-        <v>0.99999916847197223</v>
+        <f>Data!AF87</f>
+        <v>0.99999921004837367</v>
       </c>
       <c r="AB2">
-        <f>Data!AG80</f>
-        <v>0.99999958707522896</v>
+        <f>Data!AG87</f>
+        <v>0.99999960772146745</v>
       </c>
       <c r="AC2">
-        <f>Data!AH80</f>
-        <v>0.99999979494758462</v>
+        <f>Data!AH87</f>
+        <v>0.99999980520020537</v>
       </c>
       <c r="AD2">
-        <f>Data!AI80</f>
-        <v>0.99999989817397339</v>
+        <f>Data!AI87</f>
+        <v>0.99999990326527477</v>
       </c>
       <c r="AE2">
-        <f>Data!AJ80</f>
-        <v>0.99999994943468906</v>
+        <f>Data!AJ87</f>
+        <v>0.99999995196295466</v>
       </c>
       <c r="AF2">
-        <f>Data!AK80</f>
-        <v>0.99999997489000902</v>
+        <f>Data!AK87</f>
+        <v>0.99999997614550851</v>
       </c>
       <c r="AG2">
-        <f>Data!AL80</f>
-        <v>0.99999998753074737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL87</f>
+        <v>0.9999999881542101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23555,127 +23555,127 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Data!I81</f>
+        <f>Data!I88</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>Data!J81</f>
+        <f>Data!J88</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>Data!K81</f>
+        <f>Data!K88</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>Data!L81</f>
+        <f>Data!L88</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>Data!M81</f>
+        <f>Data!M88</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>Data!N81</f>
+        <f>Data!N88</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>Data!O81</f>
+        <f>Data!O88</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>Data!P81</f>
+        <f>Data!P88</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>Data!Q81</f>
+        <f>Data!Q88</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>Data!R81</f>
+        <f>Data!R88</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>Data!S81</f>
+        <f>Data!S88</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>Data!T81</f>
+        <f>Data!T88</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>Data!U81</f>
+        <f>Data!U88</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>Data!V81</f>
+        <f>Data!V88</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>Data!W81</f>
+        <f>Data!W88</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>Data!X81</f>
+        <f>Data!X88</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>Data!Y81</f>
+        <f>Data!Y88</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>Data!Z81</f>
+        <f>Data!Z88</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>Data!AA81</f>
+        <f>Data!AA88</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>Data!AB81</f>
+        <f>Data!AB88</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>Data!AC81</f>
+        <f>Data!AC88</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>Data!AD81</f>
+        <f>Data!AD88</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>Data!AE81</f>
+        <f>Data!AE88</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>Data!AF81</f>
+        <f>Data!AF88</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>Data!AG81</f>
+        <f>Data!AG88</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>Data!AH81</f>
+        <f>Data!AH88</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>Data!AI81</f>
+        <f>Data!AI88</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>Data!AJ81</f>
+        <f>Data!AJ88</f>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f>Data!AK81</f>
+        <f>Data!AK88</f>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f>Data!AL81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -23688,127 +23688,127 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>Data!I82</f>
-        <v>3</v>
+        <f>Data!I89</f>
+        <v>5</v>
       </c>
       <c r="E4">
-        <f>Data!J82</f>
-        <v>3</v>
+        <f>Data!J89</f>
+        <v>5</v>
       </c>
       <c r="F4">
-        <f>Data!K82</f>
-        <v>3</v>
+        <f>Data!K89</f>
+        <v>5</v>
       </c>
       <c r="G4">
-        <f>Data!L82</f>
-        <v>3</v>
+        <f>Data!L89</f>
+        <v>5</v>
       </c>
       <c r="H4">
-        <f>Data!M82</f>
-        <v>3</v>
+        <f>Data!M89</f>
+        <v>5</v>
       </c>
       <c r="I4">
-        <f>Data!N82</f>
-        <v>3</v>
+        <f>Data!N89</f>
+        <v>5</v>
       </c>
       <c r="J4">
-        <f>Data!O82</f>
-        <v>3</v>
+        <f>Data!O89</f>
+        <v>5</v>
       </c>
       <c r="K4">
-        <f>Data!P82</f>
-        <v>3</v>
+        <f>Data!P89</f>
+        <v>5</v>
       </c>
       <c r="L4">
-        <f>Data!Q82</f>
-        <v>3</v>
+        <f>Data!Q89</f>
+        <v>5</v>
       </c>
       <c r="M4">
-        <f>Data!R82</f>
-        <v>3</v>
+        <f>Data!R89</f>
+        <v>5</v>
       </c>
       <c r="N4">
-        <f>Data!S82</f>
-        <v>3</v>
+        <f>Data!S89</f>
+        <v>5</v>
       </c>
       <c r="O4">
-        <f>Data!T82</f>
-        <v>3</v>
+        <f>Data!T89</f>
+        <v>5</v>
       </c>
       <c r="P4">
-        <f>Data!U82</f>
-        <v>3</v>
+        <f>Data!U89</f>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <f>Data!V82</f>
-        <v>3</v>
+        <f>Data!V89</f>
+        <v>5</v>
       </c>
       <c r="R4">
-        <f>Data!W82</f>
-        <v>3</v>
+        <f>Data!W89</f>
+        <v>5</v>
       </c>
       <c r="S4">
-        <f>Data!X82</f>
-        <v>3</v>
+        <f>Data!X89</f>
+        <v>5</v>
       </c>
       <c r="T4">
-        <f>Data!Y82</f>
-        <v>3</v>
+        <f>Data!Y89</f>
+        <v>5</v>
       </c>
       <c r="U4">
-        <f>Data!Z82</f>
-        <v>3</v>
+        <f>Data!Z89</f>
+        <v>5</v>
       </c>
       <c r="V4">
-        <f>Data!AA82</f>
-        <v>3</v>
+        <f>Data!AA89</f>
+        <v>5</v>
       </c>
       <c r="W4">
-        <f>Data!AB82</f>
-        <v>3</v>
+        <f>Data!AB89</f>
+        <v>5</v>
       </c>
       <c r="X4">
-        <f>Data!AC82</f>
-        <v>3</v>
+        <f>Data!AC89</f>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <f>Data!AD82</f>
-        <v>3</v>
+        <f>Data!AD89</f>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <f>Data!AE82</f>
-        <v>3</v>
+        <f>Data!AE89</f>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <f>Data!AF82</f>
-        <v>3</v>
+        <f>Data!AF89</f>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <f>Data!AG82</f>
-        <v>3</v>
+        <f>Data!AG89</f>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <f>Data!AH82</f>
-        <v>3</v>
+        <f>Data!AH89</f>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <f>Data!AI82</f>
-        <v>3</v>
+        <f>Data!AI89</f>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <f>Data!AJ82</f>
-        <v>3</v>
+        <f>Data!AJ89</f>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <f>Data!AK82</f>
-        <v>3</v>
+        <f>Data!AK89</f>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <f>Data!AL82</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL89</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23821,127 +23821,127 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>Data!I83</f>
-        <v>0</v>
+        <f>Data!I90</f>
+        <v>5</v>
       </c>
       <c r="E5">
-        <f>Data!J83</f>
-        <v>0</v>
+        <f>Data!J90</f>
+        <v>5</v>
       </c>
       <c r="F5">
-        <f>Data!K83</f>
-        <v>0</v>
+        <f>Data!K90</f>
+        <v>5</v>
       </c>
       <c r="G5">
-        <f>Data!L83</f>
-        <v>0</v>
+        <f>Data!L90</f>
+        <v>5</v>
       </c>
       <c r="H5">
-        <f>Data!M83</f>
-        <v>0</v>
+        <f>Data!M90</f>
+        <v>5</v>
       </c>
       <c r="I5">
-        <f>Data!N83</f>
-        <v>0</v>
+        <f>Data!N90</f>
+        <v>5</v>
       </c>
       <c r="J5">
-        <f>Data!O83</f>
-        <v>0</v>
+        <f>Data!O90</f>
+        <v>5</v>
       </c>
       <c r="K5">
-        <f>Data!P83</f>
-        <v>0</v>
+        <f>Data!P90</f>
+        <v>5</v>
       </c>
       <c r="L5">
-        <f>Data!Q83</f>
-        <v>0</v>
+        <f>Data!Q90</f>
+        <v>5</v>
       </c>
       <c r="M5">
-        <f>Data!R83</f>
-        <v>0</v>
+        <f>Data!R90</f>
+        <v>5</v>
       </c>
       <c r="N5">
-        <f>Data!S83</f>
-        <v>0</v>
+        <f>Data!S90</f>
+        <v>5</v>
       </c>
       <c r="O5">
-        <f>Data!T83</f>
-        <v>0</v>
+        <f>Data!T90</f>
+        <v>5</v>
       </c>
       <c r="P5">
-        <f>Data!U83</f>
-        <v>0</v>
+        <f>Data!U90</f>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <f>Data!V83</f>
-        <v>0</v>
+        <f>Data!V90</f>
+        <v>5</v>
       </c>
       <c r="R5">
-        <f>Data!W83</f>
-        <v>0</v>
+        <f>Data!W90</f>
+        <v>5</v>
       </c>
       <c r="S5">
-        <f>Data!X83</f>
-        <v>0</v>
+        <f>Data!X90</f>
+        <v>5</v>
       </c>
       <c r="T5">
-        <f>Data!Y83</f>
-        <v>0</v>
+        <f>Data!Y90</f>
+        <v>5</v>
       </c>
       <c r="U5">
-        <f>Data!Z83</f>
-        <v>0</v>
+        <f>Data!Z90</f>
+        <v>5</v>
       </c>
       <c r="V5">
-        <f>Data!AA83</f>
-        <v>0</v>
+        <f>Data!AA90</f>
+        <v>5</v>
       </c>
       <c r="W5">
-        <f>Data!AB83</f>
-        <v>0</v>
+        <f>Data!AB90</f>
+        <v>5</v>
       </c>
       <c r="X5">
-        <f>Data!AC83</f>
-        <v>0</v>
+        <f>Data!AC90</f>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <f>Data!AD83</f>
-        <v>0</v>
+        <f>Data!AD90</f>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <f>Data!AE83</f>
-        <v>0</v>
+        <f>Data!AE90</f>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <f>Data!AF83</f>
-        <v>0</v>
+        <f>Data!AF90</f>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <f>Data!AG83</f>
-        <v>0</v>
+        <f>Data!AG90</f>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <f>Data!AH83</f>
-        <v>0</v>
+        <f>Data!AH90</f>
+        <v>5</v>
       </c>
       <c r="AD5">
-        <f>Data!AI83</f>
-        <v>0</v>
+        <f>Data!AI90</f>
+        <v>5</v>
       </c>
       <c r="AE5">
-        <f>Data!AJ83</f>
-        <v>0</v>
+        <f>Data!AJ90</f>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <f>Data!AK83</f>
-        <v>0</v>
+        <f>Data!AK90</f>
+        <v>5</v>
       </c>
       <c r="AG5">
-        <f>Data!AL83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL90</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -23954,127 +23954,127 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f>Data!I84</f>
+        <f>Data!I91</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>Data!J84</f>
+        <f>Data!J91</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>Data!K84</f>
+        <f>Data!K91</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>Data!L84</f>
+        <f>Data!L91</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>Data!M84</f>
+        <f>Data!M91</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>Data!N84</f>
+        <f>Data!N91</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>Data!O84</f>
+        <f>Data!O91</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>Data!P84</f>
+        <f>Data!P91</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>Data!Q84</f>
+        <f>Data!Q91</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>Data!R84</f>
+        <f>Data!R91</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>Data!S84</f>
+        <f>Data!S91</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>Data!T84</f>
+        <f>Data!T91</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>Data!U84</f>
+        <f>Data!U91</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>Data!V84</f>
+        <f>Data!V91</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>Data!W84</f>
+        <f>Data!W91</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>Data!X84</f>
+        <f>Data!X91</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>Data!Y84</f>
+        <f>Data!Y91</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>Data!Z84</f>
+        <f>Data!Z91</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>Data!AA84</f>
+        <f>Data!AA91</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>Data!AB84</f>
+        <f>Data!AB91</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>Data!AC84</f>
+        <f>Data!AC91</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>Data!AD84</f>
+        <f>Data!AD91</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>Data!AE84</f>
+        <f>Data!AE91</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>Data!AF84</f>
+        <f>Data!AF91</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>Data!AG84</f>
+        <f>Data!AG91</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>Data!AH84</f>
+        <f>Data!AH91</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>Data!AI84</f>
+        <f>Data!AI91</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>Data!AJ84</f>
+        <f>Data!AJ91</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>Data!AK84</f>
+        <f>Data!AK91</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>Data!AL84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -24087,127 +24087,127 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>Data!I85</f>
+        <f>Data!I92</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>Data!J85</f>
+        <f>Data!J92</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>Data!K85</f>
+        <f>Data!K92</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>Data!L85</f>
+        <f>Data!L92</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>Data!M85</f>
+        <f>Data!M92</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>Data!N85</f>
+        <f>Data!N92</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>Data!O85</f>
+        <f>Data!O92</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>Data!P85</f>
+        <f>Data!P92</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>Data!Q85</f>
+        <f>Data!Q92</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>Data!R85</f>
+        <f>Data!R92</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>Data!S85</f>
+        <f>Data!S92</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>Data!T85</f>
+        <f>Data!T92</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>Data!U85</f>
+        <f>Data!U92</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>Data!V85</f>
+        <f>Data!V92</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>Data!W85</f>
+        <f>Data!W92</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>Data!X85</f>
+        <f>Data!X92</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>Data!Y85</f>
+        <f>Data!Y92</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>Data!Z85</f>
+        <f>Data!Z92</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>Data!AA85</f>
+        <f>Data!AA92</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>Data!AB85</f>
+        <f>Data!AB92</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>Data!AC85</f>
+        <f>Data!AC92</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>Data!AD85</f>
+        <f>Data!AD92</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>Data!AE85</f>
+        <f>Data!AE92</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>Data!AF85</f>
+        <f>Data!AF92</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>Data!AG85</f>
+        <f>Data!AG92</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>Data!AH85</f>
+        <f>Data!AH92</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>Data!AI85</f>
+        <f>Data!AI92</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>Data!AJ85</f>
+        <f>Data!AJ92</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>Data!AK85</f>
+        <f>Data!AK92</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>Data!AL85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -24220,123 +24220,123 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>Data!I86</f>
+        <f>Data!I93</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>Data!J86</f>
+        <f>Data!J93</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>Data!K86</f>
+        <f>Data!K93</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>Data!L86</f>
+        <f>Data!L93</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>Data!M86</f>
+        <f>Data!M93</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>Data!N86</f>
+        <f>Data!N93</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>Data!O86</f>
+        <f>Data!O93</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>Data!P86</f>
+        <f>Data!P93</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>Data!Q86</f>
+        <f>Data!Q93</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>Data!R86</f>
+        <f>Data!R93</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>Data!S86</f>
+        <f>Data!S93</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>Data!T86</f>
+        <f>Data!T93</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>Data!U86</f>
+        <f>Data!U93</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>Data!V86</f>
+        <f>Data!V93</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>Data!W86</f>
+        <f>Data!W93</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>Data!X86</f>
+        <f>Data!X93</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>Data!Y86</f>
+        <f>Data!Y93</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>Data!Z86</f>
+        <f>Data!Z93</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>Data!AA86</f>
+        <f>Data!AA93</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>Data!AB86</f>
+        <f>Data!AB93</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>Data!AC86</f>
+        <f>Data!AC93</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>Data!AD86</f>
+        <f>Data!AD93</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>Data!AE86</f>
+        <f>Data!AE93</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>Data!AF86</f>
+        <f>Data!AF93</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>Data!AG86</f>
+        <f>Data!AG93</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>Data!AH86</f>
+        <f>Data!AH93</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>Data!AI86</f>
+        <f>Data!AI93</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>Data!AJ86</f>
+        <f>Data!AJ93</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>Data!AK86</f>
+        <f>Data!AK93</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>Data!AL86</f>
+        <f>Data!AL93</f>
         <v>0</v>
       </c>
     </row>
@@ -24352,16 +24352,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -24493,935 +24493,935 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>'TTS-HDVs-frgt'!B2</f>
-        <v>0.05</v>
+        <f>C2</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>'TTS-HDVs-frgt'!C2</f>
-        <v>0.05</v>
+        <f>Data!H80</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>'TTS-HDVs-frgt'!D2</f>
-        <v>0.15364198013583233</v>
+        <f>Data!I80</f>
+        <v>0.10909682119561298</v>
       </c>
       <c r="E2">
-        <f>'TTS-HDVs-frgt'!E2</f>
-        <v>0.23792530586934735</v>
+        <f>Data!J80</f>
+        <v>0.19781611144141825</v>
       </c>
       <c r="F2">
-        <f>'TTS-HDVs-frgt'!F2</f>
-        <v>0.36522161644024215</v>
+        <f>Data!K80</f>
+        <v>0.33181222783183389</v>
       </c>
       <c r="G2">
-        <f>'TTS-HDVs-frgt'!G2</f>
-        <v>0.52500000000000002</v>
+        <f>Data!L80</f>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <f>'TTS-HDVs-frgt'!H2</f>
-        <v>0.68477838355975784</v>
+        <f>Data!M80</f>
+        <v>0.66818777216816616</v>
       </c>
       <c r="I2">
-        <f>'TTS-HDVs-frgt'!I2</f>
-        <v>0.81207469413065259</v>
+        <f>Data!N80</f>
+        <v>0.80218388855858169</v>
       </c>
       <c r="J2">
-        <f>'TTS-HDVs-frgt'!J2</f>
-        <v>0.89635801986416774</v>
+        <f>Data!O80</f>
+        <v>0.89090317880438707</v>
       </c>
       <c r="K2">
-        <f>'TTS-HDVs-frgt'!K2</f>
-        <v>0.94554203289607475</v>
+        <f>Data!P80</f>
+        <v>0.94267582410113127</v>
       </c>
       <c r="L2">
-        <f>'TTS-HDVs-frgt'!L2</f>
-        <v>0.97215338078621139</v>
+        <f>Data!Q80</f>
+        <v>0.97068776924864364</v>
       </c>
       <c r="M2">
-        <f>'TTS-HDVs-frgt'!M2</f>
-        <v>0.98596466989139064</v>
+        <f>Data!R80</f>
+        <v>0.98522596830672693</v>
       </c>
       <c r="N2">
-        <f>'TTS-HDVs-frgt'!N2</f>
-        <v>0.9929780357229322</v>
+        <f>Data!S80</f>
+        <v>0.99260845865571812</v>
       </c>
       <c r="O2">
-        <f>'TTS-HDVs-frgt'!O2</f>
-        <v>0.99649997209553587</v>
+        <f>Data!T80</f>
+        <v>0.99631576010056411</v>
       </c>
       <c r="P2">
-        <f>'TTS-HDVs-frgt'!P2</f>
-        <v>0.9982587080046319</v>
+        <f>Data!U80</f>
+        <v>0.99816706105750719</v>
       </c>
       <c r="Q2">
-        <f>'TTS-HDVs-frgt'!Q2</f>
-        <v>0.99913450136531945</v>
+        <f>Data!V80</f>
+        <v>0.9990889488055994</v>
       </c>
       <c r="R2">
-        <f>'TTS-HDVs-frgt'!R2</f>
-        <v>0.99957000888792158</v>
+        <f>Data!W80</f>
+        <v>0.9995473777767595</v>
       </c>
       <c r="S2">
-        <f>'TTS-HDVs-frgt'!S2</f>
-        <v>0.99978642406827833</v>
+        <f>Data!X80</f>
+        <v>0.99977518322976666</v>
       </c>
       <c r="T2">
-        <f>'TTS-HDVs-frgt'!T2</f>
-        <v>0.99989392932640198</v>
+        <f>Data!Y80</f>
+        <v>0.99988834665937043</v>
       </c>
       <c r="U2">
-        <f>'TTS-HDVs-frgt'!U2</f>
-        <v>0.99994732390151331</v>
+        <f>Data!Z80</f>
+        <v>0.99994455147527717</v>
       </c>
       <c r="V2">
-        <f>'TTS-HDVs-frgt'!V2</f>
-        <v>0.99997384109344112</v>
+        <f>Data!AA80</f>
+        <v>0.99997246430888531</v>
       </c>
       <c r="W2">
-        <f>'TTS-HDVs-frgt'!W2</f>
-        <v>0.99998700969136967</v>
+        <f>Data!AB80</f>
+        <v>0.99998632599091541</v>
       </c>
       <c r="X2">
-        <f>'TTS-HDVs-frgt'!X2</f>
-        <v>0.99999354915923688</v>
+        <f>Data!AC80</f>
+        <v>0.99999320964130201</v>
       </c>
       <c r="Y2">
-        <f>'TTS-HDVs-frgt'!Y2</f>
-        <v>0.99999679659632945</v>
+        <f>Data!AD80</f>
+        <v>0.99999662799613631</v>
       </c>
       <c r="Z2">
-        <f>'TTS-HDVs-frgt'!Z2</f>
-        <v>0.99999840923411476</v>
+        <f>Data!AE80</f>
+        <v>0.99999832550959444</v>
       </c>
       <c r="AA2">
-        <f>'TTS-HDVs-frgt'!AA2</f>
-        <v>0.99999921004837367</v>
+        <f>Data!AF80</f>
+        <v>0.99999916847197223</v>
       </c>
       <c r="AB2">
-        <f>'TTS-HDVs-frgt'!AB2</f>
-        <v>0.99999960772146745</v>
+        <f>Data!AG80</f>
+        <v>0.99999958707522896</v>
       </c>
       <c r="AC2">
-        <f>'TTS-HDVs-frgt'!AC2</f>
-        <v>0.99999980520020537</v>
+        <f>Data!AH80</f>
+        <v>0.99999979494758462</v>
       </c>
       <c r="AD2">
-        <f>'TTS-HDVs-frgt'!AD2</f>
-        <v>0.99999990326527477</v>
+        <f>Data!AI80</f>
+        <v>0.99999989817397339</v>
       </c>
       <c r="AE2">
-        <f>'TTS-HDVs-frgt'!AE2</f>
-        <v>0.99999995196295466</v>
+        <f>Data!AJ80</f>
+        <v>0.99999994943468906</v>
       </c>
       <c r="AF2">
-        <f>'TTS-HDVs-frgt'!AF2</f>
-        <v>0.99999997614550851</v>
+        <f>Data!AK80</f>
+        <v>0.99999997489000902</v>
       </c>
       <c r="AG2">
-        <f>'TTS-HDVs-frgt'!AG2</f>
-        <v>0.9999999881542101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL80</f>
+        <v>0.99999998753074737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'TTS-HDVs-frgt'!B3</f>
-        <v>7.2809767943268324E-3</v>
+        <f t="shared" ref="B3:B8" si="0">C3</f>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'TTS-HDVs-frgt'!C3</f>
-        <v>7.2809767943268324E-3</v>
+        <f>Data!H81</f>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>'TTS-HDVs-frgt'!D3</f>
-        <v>7.9539756206734417E-3</v>
+        <f>Data!I81</f>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>'TTS-HDVs-frgt'!E3</f>
-        <v>8.1847586969656192E-3</v>
+        <f>Data!J81</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>'TTS-HDVs-frgt'!F3</f>
-        <v>8.4925448911875676E-3</v>
+        <f>Data!K81</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>'TTS-HDVs-frgt'!G3</f>
-        <v>8.9013448244791796E-3</v>
+        <f>Data!L81</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>'TTS-HDVs-frgt'!H3</f>
-        <v>9.4413591225641757E-3</v>
+        <f>Data!M81</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>'TTS-HDVs-frgt'!I3</f>
-        <v>1.0149590832616918E-2</v>
+        <f>Data!N81</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>'TTS-HDVs-frgt'!J3</f>
-        <v>1.1069727778933097E-2</v>
+        <f>Data!O81</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>'TTS-HDVs-frgt'!K3</f>
-        <v>1.2250644800130824E-2</v>
+        <f>Data!P81</f>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>'TTS-HDVs-frgt'!L3</f>
-        <v>1.3742693012081563E-2</v>
+        <f>Data!Q81</f>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>'TTS-HDVs-frgt'!M3</f>
-        <v>1.5590974090003679E-2</v>
+        <f>Data!R81</f>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>'TTS-HDVs-frgt'!N3</f>
-        <v>1.7825325978606671E-2</v>
+        <f>Data!S81</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f>'TTS-HDVs-frgt'!O3</f>
-        <v>2.0448042462451119E-2</v>
+        <f>Data!T81</f>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f>'TTS-HDVs-frgt'!P3</f>
-        <v>2.342233177341109E-2</v>
+        <f>Data!U81</f>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>'TTS-HDVs-frgt'!Q3</f>
-        <v>2.666632080026762E-2</v>
+        <f>Data!V81</f>
+        <v>0</v>
       </c>
       <c r="R3">
-        <f>'TTS-HDVs-frgt'!R3</f>
-        <v>3.0057387469452152E-2</v>
+        <f>Data!W81</f>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f>'TTS-HDVs-frgt'!S3</f>
-        <v>3.3448454138636688E-2</v>
+        <f>Data!X81</f>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f>'TTS-HDVs-frgt'!T3</f>
-        <v>3.6692443165493215E-2</v>
+        <f>Data!Y81</f>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f>'TTS-HDVs-frgt'!U3</f>
-        <v>3.9666732476453186E-2</v>
+        <f>Data!Z81</f>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f>'TTS-HDVs-frgt'!V3</f>
-        <v>4.2289448960297633E-2</v>
+        <f>Data!AA81</f>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f>'TTS-HDVs-frgt'!W3</f>
-        <v>4.4523800848900626E-2</v>
+        <f>Data!AB81</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f>'TTS-HDVs-frgt'!X3</f>
-        <v>4.6372081926822753E-2</v>
+        <f>Data!AC81</f>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <f>'TTS-HDVs-frgt'!Y3</f>
-        <v>4.7864130138773484E-2</v>
+        <f>Data!AD81</f>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f>'TTS-HDVs-frgt'!Z3</f>
-        <v>4.9045047159971211E-2</v>
+        <f>Data!AE81</f>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f>'TTS-HDVs-frgt'!AA3</f>
-        <v>4.9965184106287391E-2</v>
+        <f>Data!AF81</f>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f>'TTS-HDVs-frgt'!AB3</f>
-        <v>5.0673415816340134E-2</v>
+        <f>Data!AG81</f>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f>'TTS-HDVs-frgt'!AC3</f>
-        <v>5.1213430114425126E-2</v>
+        <f>Data!AH81</f>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <f>'TTS-HDVs-frgt'!AD3</f>
-        <v>5.1622230047716738E-2</v>
+        <f>Data!AI81</f>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <f>'TTS-HDVs-frgt'!AE3</f>
-        <v>5.1930016241938694E-2</v>
+        <f>Data!AJ81</f>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f>'TTS-HDVs-frgt'!AF3</f>
-        <v>5.2160799318230866E-2</v>
+        <f>Data!AK81</f>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <f>'TTS-HDVs-frgt'!AG3</f>
-        <v>5.2333311909740617E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'TTS-HDVs-frgt'!B4</f>
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C4">
-        <f>'TTS-HDVs-frgt'!C4</f>
-        <v>0.01</v>
+        <f>Data!H82</f>
+        <v>3</v>
       </c>
       <c r="D4">
-        <f>'TTS-HDVs-frgt'!D4</f>
-        <v>0.01</v>
+        <f>Data!I82</f>
+        <v>3</v>
       </c>
       <c r="E4">
-        <f>'TTS-HDVs-frgt'!E4</f>
-        <v>0.01</v>
+        <f>Data!J82</f>
+        <v>3</v>
       </c>
       <c r="F4">
-        <f>'TTS-HDVs-frgt'!F4</f>
-        <v>0.01</v>
+        <f>Data!K82</f>
+        <v>3</v>
       </c>
       <c r="G4">
-        <f>'TTS-HDVs-frgt'!G4</f>
-        <v>0.01</v>
+        <f>Data!L82</f>
+        <v>3</v>
       </c>
       <c r="H4">
-        <f>'TTS-HDVs-frgt'!H4</f>
-        <v>0.01</v>
+        <f>Data!M82</f>
+        <v>3</v>
       </c>
       <c r="I4">
-        <f>'TTS-HDVs-frgt'!I4</f>
-        <v>0.01</v>
+        <f>Data!N82</f>
+        <v>3</v>
       </c>
       <c r="J4">
-        <f>'TTS-HDVs-frgt'!J4</f>
-        <v>0.01</v>
+        <f>Data!O82</f>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>'TTS-HDVs-frgt'!K4</f>
-        <v>0.01</v>
+        <f>Data!P82</f>
+        <v>3</v>
       </c>
       <c r="L4">
-        <f>'TTS-HDVs-frgt'!L4</f>
-        <v>0.01</v>
+        <f>Data!Q82</f>
+        <v>3</v>
       </c>
       <c r="M4">
-        <f>'TTS-HDVs-frgt'!M4</f>
-        <v>0.01</v>
+        <f>Data!R82</f>
+        <v>3</v>
       </c>
       <c r="N4">
-        <f>'TTS-HDVs-frgt'!N4</f>
-        <v>0.01</v>
+        <f>Data!S82</f>
+        <v>3</v>
       </c>
       <c r="O4">
-        <f>'TTS-HDVs-frgt'!O4</f>
-        <v>0.01</v>
+        <f>Data!T82</f>
+        <v>3</v>
       </c>
       <c r="P4">
-        <f>'TTS-HDVs-frgt'!P4</f>
-        <v>0.01</v>
+        <f>Data!U82</f>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <f>'TTS-HDVs-frgt'!Q4</f>
-        <v>0.01</v>
+        <f>Data!V82</f>
+        <v>3</v>
       </c>
       <c r="R4">
-        <f>'TTS-HDVs-frgt'!R4</f>
-        <v>0.01</v>
+        <f>Data!W82</f>
+        <v>3</v>
       </c>
       <c r="S4">
-        <f>'TTS-HDVs-frgt'!S4</f>
-        <v>0.01</v>
+        <f>Data!X82</f>
+        <v>3</v>
       </c>
       <c r="T4">
-        <f>'TTS-HDVs-frgt'!T4</f>
-        <v>0.01</v>
+        <f>Data!Y82</f>
+        <v>3</v>
       </c>
       <c r="U4">
-        <f>'TTS-HDVs-frgt'!U4</f>
-        <v>0.01</v>
+        <f>Data!Z82</f>
+        <v>3</v>
       </c>
       <c r="V4">
-        <f>'TTS-HDVs-frgt'!V4</f>
-        <v>0.01</v>
+        <f>Data!AA82</f>
+        <v>3</v>
       </c>
       <c r="W4">
-        <f>'TTS-HDVs-frgt'!W4</f>
-        <v>0.01</v>
+        <f>Data!AB82</f>
+        <v>3</v>
       </c>
       <c r="X4">
-        <f>'TTS-HDVs-frgt'!X4</f>
-        <v>0.01</v>
+        <f>Data!AC82</f>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <f>'TTS-HDVs-frgt'!Y4</f>
-        <v>0.01</v>
+        <f>Data!AD82</f>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <f>'TTS-HDVs-frgt'!Z4</f>
-        <v>0.01</v>
+        <f>Data!AE82</f>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <f>'TTS-HDVs-frgt'!AA4</f>
-        <v>0.01</v>
+        <f>Data!AF82</f>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <f>'TTS-HDVs-frgt'!AB4</f>
-        <v>0.01</v>
+        <f>Data!AG82</f>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <f>'TTS-HDVs-frgt'!AC4</f>
-        <v>0.01</v>
+        <f>Data!AH82</f>
+        <v>3</v>
       </c>
       <c r="AD4">
-        <f>'TTS-HDVs-frgt'!AD4</f>
-        <v>0.01</v>
+        <f>Data!AI82</f>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <f>'TTS-HDVs-frgt'!AE4</f>
-        <v>0.01</v>
+        <f>Data!AJ82</f>
+        <v>3</v>
       </c>
       <c r="AF4">
-        <f>'TTS-HDVs-frgt'!AF4</f>
-        <v>0.01</v>
+        <f>Data!AK82</f>
+        <v>3</v>
       </c>
       <c r="AG4">
-        <f>'TTS-HDVs-frgt'!AG4</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL82</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>'TTS-HDVs-frgt'!B5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>'TTS-HDVs-frgt'!C5</f>
-        <v>5</v>
+        <f>Data!H83</f>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f>'TTS-HDVs-frgt'!D5</f>
-        <v>5</v>
+        <f>Data!I83</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>'TTS-HDVs-frgt'!E5</f>
-        <v>5</v>
+        <f>Data!J83</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>'TTS-HDVs-frgt'!F5</f>
-        <v>5</v>
+        <f>Data!K83</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>'TTS-HDVs-frgt'!G5</f>
-        <v>5</v>
+        <f>Data!L83</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>'TTS-HDVs-frgt'!H5</f>
-        <v>5</v>
+        <f>Data!M83</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>'TTS-HDVs-frgt'!I5</f>
-        <v>5</v>
+        <f>Data!N83</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>'TTS-HDVs-frgt'!J5</f>
-        <v>5</v>
+        <f>Data!O83</f>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>'TTS-HDVs-frgt'!K5</f>
-        <v>5</v>
+        <f>Data!P83</f>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>'TTS-HDVs-frgt'!L5</f>
-        <v>5</v>
+        <f>Data!Q83</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>'TTS-HDVs-frgt'!M5</f>
-        <v>5</v>
+        <f>Data!R83</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>'TTS-HDVs-frgt'!N5</f>
-        <v>5</v>
+        <f>Data!S83</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>'TTS-HDVs-frgt'!O5</f>
-        <v>5</v>
+        <f>Data!T83</f>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>'TTS-HDVs-frgt'!P5</f>
-        <v>5</v>
+        <f>Data!U83</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>'TTS-HDVs-frgt'!Q5</f>
-        <v>5</v>
+        <f>Data!V83</f>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>'TTS-HDVs-frgt'!R5</f>
-        <v>5</v>
+        <f>Data!W83</f>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>'TTS-HDVs-frgt'!S5</f>
-        <v>5</v>
+        <f>Data!X83</f>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f>'TTS-HDVs-frgt'!T5</f>
-        <v>5</v>
+        <f>Data!Y83</f>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f>'TTS-HDVs-frgt'!U5</f>
-        <v>5</v>
+        <f>Data!Z83</f>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f>'TTS-HDVs-frgt'!V5</f>
-        <v>5</v>
+        <f>Data!AA83</f>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f>'TTS-HDVs-frgt'!W5</f>
-        <v>5</v>
+        <f>Data!AB83</f>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f>'TTS-HDVs-frgt'!X5</f>
-        <v>5</v>
+        <f>Data!AC83</f>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f>'TTS-HDVs-frgt'!Y5</f>
-        <v>5</v>
+        <f>Data!AD83</f>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f>'TTS-HDVs-frgt'!Z5</f>
-        <v>5</v>
+        <f>Data!AE83</f>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f>'TTS-HDVs-frgt'!AA5</f>
-        <v>5</v>
+        <f>Data!AF83</f>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f>'TTS-HDVs-frgt'!AB5</f>
-        <v>5</v>
+        <f>Data!AG83</f>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f>'TTS-HDVs-frgt'!AC5</f>
-        <v>5</v>
+        <f>Data!AH83</f>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f>'TTS-HDVs-frgt'!AD5</f>
-        <v>5</v>
+        <f>Data!AI83</f>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f>'TTS-HDVs-frgt'!AE5</f>
-        <v>5</v>
+        <f>Data!AJ83</f>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f>'TTS-HDVs-frgt'!AF5</f>
-        <v>5</v>
+        <f>Data!AK83</f>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f>'TTS-HDVs-frgt'!AG5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>'TTS-HDVs-frgt'!B6</f>
-        <v>2.1604589258675129E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'TTS-HDVs-frgt'!C6</f>
-        <v>2.1604589258675129E-3</v>
+        <f>Data!H84</f>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'TTS-HDVs-frgt'!D6</f>
-        <v>2.5363121187666543E-3</v>
+        <f>Data!I84</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'TTS-HDVs-frgt'!E6</f>
-        <v>2.6651987567454672E-3</v>
+        <f>Data!J84</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'TTS-HDVs-frgt'!F6</f>
-        <v>2.8370897308450499E-3</v>
+        <f>Data!K84</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'TTS-HDVs-frgt'!G6</f>
-        <v>3.0653943788913106E-3</v>
+        <f>Data!L84</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>'TTS-HDVs-frgt'!H6</f>
-        <v>3.3669790031145663E-3</v>
+        <f>Data!M84</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>'TTS-HDVs-frgt'!I6</f>
-        <v>3.7625088898169965E-3</v>
+        <f>Data!N84</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>'TTS-HDVs-frgt'!J6</f>
-        <v>4.2763826079255159E-3</v>
+        <f>Data!O84</f>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>'TTS-HDVs-frgt'!K6</f>
-        <v>4.9358955455268607E-3</v>
+        <f>Data!P84</f>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>'TTS-HDVs-frgt'!L6</f>
-        <v>5.7691675550270976E-3</v>
+        <f>Data!Q84</f>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>'TTS-HDVs-frgt'!M6</f>
-        <v>6.8013868061113751E-3</v>
+        <f>Data!R84</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>'TTS-HDVs-frgt'!N6</f>
-        <v>8.0492170526371733E-3</v>
+        <f>Data!S84</f>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>'TTS-HDVs-frgt'!O6</f>
-        <v>9.5139393165278099E-3</v>
+        <f>Data!T84</f>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>'TTS-HDVs-frgt'!P6</f>
-        <v>1.1175006305602102E-2</v>
+        <f>Data!U84</f>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>'TTS-HDVs-frgt'!Q6</f>
-        <v>1.298669391298265E-2</v>
+        <f>Data!V84</f>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>'TTS-HDVs-frgt'!R6</f>
-        <v>1.4880520744547505E-2</v>
+        <f>Data!W84</f>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>'TTS-HDVs-frgt'!S6</f>
-        <v>1.6774347576112358E-2</v>
+        <f>Data!X84</f>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f>'TTS-HDVs-frgt'!T6</f>
-        <v>1.8586035183492906E-2</v>
+        <f>Data!Y84</f>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f>'TTS-HDVs-frgt'!U6</f>
-        <v>2.0247102172567196E-2</v>
+        <f>Data!Z84</f>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f>'TTS-HDVs-frgt'!V6</f>
-        <v>2.1711824436457833E-2</v>
+        <f>Data!AA84</f>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f>'TTS-HDVs-frgt'!W6</f>
-        <v>2.2959654682983631E-2</v>
+        <f>Data!AB84</f>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>'TTS-HDVs-frgt'!X6</f>
-        <v>2.399187393406791E-2</v>
+        <f>Data!AC84</f>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f>'TTS-HDVs-frgt'!Y6</f>
-        <v>2.4825145943568147E-2</v>
+        <f>Data!AD84</f>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f>'TTS-HDVs-frgt'!Z6</f>
-        <v>2.5484658881169492E-2</v>
+        <f>Data!AE84</f>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f>'TTS-HDVs-frgt'!AA6</f>
-        <v>2.5998532599278014E-2</v>
+        <f>Data!AF84</f>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f>'TTS-HDVs-frgt'!AB6</f>
-        <v>2.6394062485980443E-2</v>
+        <f>Data!AG84</f>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f>'TTS-HDVs-frgt'!AC6</f>
-        <v>2.6695647110203696E-2</v>
+        <f>Data!AH84</f>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f>'TTS-HDVs-frgt'!AD6</f>
-        <v>2.6923951758249957E-2</v>
+        <f>Data!AI84</f>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f>'TTS-HDVs-frgt'!AE6</f>
-        <v>2.7095842732349541E-2</v>
+        <f>Data!AJ84</f>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f>'TTS-HDVs-frgt'!AF6</f>
-        <v>2.7224729370328354E-2</v>
+        <f>Data!AK84</f>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f>'TTS-HDVs-frgt'!AG6</f>
-        <v>2.7321073384308624E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7">
-        <f>'TTS-HDVs-frgt'!B7</f>
-        <v>1.0208494207686616E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'TTS-HDVs-frgt'!C7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!H85</f>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'TTS-HDVs-frgt'!D7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!I85</f>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'TTS-HDVs-frgt'!E7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!J85</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'TTS-HDVs-frgt'!F7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!K85</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'TTS-HDVs-frgt'!G7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!L85</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>'TTS-HDVs-frgt'!H7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!M85</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>'TTS-HDVs-frgt'!I7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!N85</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>'TTS-HDVs-frgt'!J7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!O85</f>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>'TTS-HDVs-frgt'!K7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!P85</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>'TTS-HDVs-frgt'!L7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Q85</f>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>'TTS-HDVs-frgt'!M7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!R85</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>'TTS-HDVs-frgt'!N7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!S85</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>'TTS-HDVs-frgt'!O7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!T85</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>'TTS-HDVs-frgt'!P7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!U85</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>'TTS-HDVs-frgt'!Q7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!V85</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>'TTS-HDVs-frgt'!R7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!W85</f>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>'TTS-HDVs-frgt'!S7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!X85</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>'TTS-HDVs-frgt'!T7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Y85</f>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>'TTS-HDVs-frgt'!U7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Z85</f>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>'TTS-HDVs-frgt'!V7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AA85</f>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>'TTS-HDVs-frgt'!W7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AB85</f>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>'TTS-HDVs-frgt'!X7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AC85</f>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>'TTS-HDVs-frgt'!Y7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AD85</f>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>'TTS-HDVs-frgt'!Z7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AE85</f>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>'TTS-HDVs-frgt'!AA7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AF85</f>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>'TTS-HDVs-frgt'!AB7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AG85</f>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>'TTS-HDVs-frgt'!AC7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AH85</f>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>'TTS-HDVs-frgt'!AD7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AI85</f>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>'TTS-HDVs-frgt'!AE7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AJ85</f>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>'TTS-HDVs-frgt'!AF7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AK85</f>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>'TTS-HDVs-frgt'!AG7</f>
-        <v>1.0208494207686616E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
       <c r="B8">
-        <f>'TTS-HDVs-frgt'!B8</f>
-        <v>2.2506977162920506E-5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>'TTS-HDVs-frgt'!C8</f>
-        <v>2.2506977162920506E-5</v>
+        <f>Data!H86</f>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>'TTS-HDVs-frgt'!D8</f>
-        <v>1.1328629514907667E-4</v>
+        <f>Data!I86</f>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>'TTS-HDVs-frgt'!E8</f>
-        <v>1.444161120943459E-4</v>
+        <f>Data!J86</f>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'TTS-HDVs-frgt'!F8</f>
-        <v>1.8593270871116238E-4</v>
+        <f>Data!K86</f>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>'TTS-HDVs-frgt'!G8</f>
-        <v>2.410748243942677E-4</v>
+        <f>Data!L86</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>'TTS-HDVs-frgt'!H8</f>
-        <v>3.139161545181947E-4</v>
+        <f>Data!M86</f>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>'TTS-HDVs-frgt'!I8</f>
-        <v>4.0944795798919357E-4</v>
+        <f>Data!N86</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>'TTS-HDVs-frgt'!J8</f>
-        <v>5.3356318846275704E-4</v>
+        <f>Data!O86</f>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f>'TTS-HDVs-frgt'!K8</f>
-        <v>6.9285446444391488E-4</v>
+        <f>Data!P86</f>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>'TTS-HDVs-frgt'!L8</f>
-        <v>8.9411353619984948E-4</v>
+        <f>Data!Q86</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>'TTS-HDVs-frgt'!M8</f>
-        <v>1.1434240685990161E-3</v>
+        <f>Data!R86</f>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f>'TTS-HDVs-frgt'!N8</f>
-        <v>1.4448108357788989E-3</v>
+        <f>Data!S86</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>'TTS-HDVs-frgt'!O8</f>
-        <v>1.7985832412478915E-3</v>
+        <f>Data!T86</f>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f>'TTS-HDVs-frgt'!P8</f>
-        <v>2.1997785250616603E-3</v>
+        <f>Data!U86</f>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>'TTS-HDVs-frgt'!Q8</f>
-        <v>2.6373530049626742E-3</v>
+        <f>Data!V86</f>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f>'TTS-HDVs-frgt'!R8</f>
-        <v>3.0947664616031096E-3</v>
+        <f>Data!W86</f>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>'TTS-HDVs-frgt'!S8</f>
-        <v>3.5521799182435449E-3</v>
+        <f>Data!X86</f>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f>'TTS-HDVs-frgt'!T8</f>
-        <v>3.989754398144558E-3</v>
+        <f>Data!Y86</f>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>'TTS-HDVs-frgt'!U8</f>
-        <v>4.3909496819583265E-3</v>
+        <f>Data!Z86</f>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f>'TTS-HDVs-frgt'!V8</f>
-        <v>4.7447220874273196E-3</v>
+        <f>Data!AA86</f>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f>'TTS-HDVs-frgt'!W8</f>
-        <v>5.0461088546072024E-3</v>
+        <f>Data!AB86</f>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>'TTS-HDVs-frgt'!X8</f>
-        <v>5.2954193870063697E-3</v>
+        <f>Data!AC86</f>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f>'TTS-HDVs-frgt'!Y8</f>
-        <v>5.4966784587623038E-3</v>
+        <f>Data!AD86</f>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f>'TTS-HDVs-frgt'!Z8</f>
-        <v>5.6559697347434617E-3</v>
+        <f>Data!AE86</f>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f>'TTS-HDVs-frgt'!AA8</f>
-        <v>5.7800849652170248E-3</v>
+        <f>Data!AF86</f>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f>'TTS-HDVs-frgt'!AB8</f>
-        <v>5.875616768688024E-3</v>
+        <f>Data!AG86</f>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f>'TTS-HDVs-frgt'!AC8</f>
-        <v>5.948458098811951E-3</v>
+        <f>Data!AH86</f>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f>'TTS-HDVs-frgt'!AD8</f>
-        <v>6.0036002144950558E-3</v>
+        <f>Data!AI86</f>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f>'TTS-HDVs-frgt'!AE8</f>
-        <v>6.0451168111118727E-3</v>
+        <f>Data!AJ86</f>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f>'TTS-HDVs-frgt'!AF8</f>
-        <v>6.0762466280571414E-3</v>
+        <f>Data!AK86</f>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f>'TTS-HDVs-frgt'!AG8</f>
-        <v>6.0995164686396177E-3</v>
+        <f>Data!AL86</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25440,9 +25440,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -25540,27 +25540,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30019,29 +30019,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30111,7 +30111,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30321,7 +30321,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -30601,7 +30601,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -30741,7 +30741,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31182,9 +31182,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31282,27 +31282,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -31763,7 +31763,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -31873,7 +31873,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -32871,7 +32871,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -33091,7 +33091,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -33649,7 +33649,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -33759,7 +33759,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -34529,7 +34529,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -34749,7 +34749,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -36203,7 +36203,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -36423,7 +36423,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -36533,7 +36533,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -37091,7 +37091,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -37311,7 +37311,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -37641,7 +37641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -37751,7 +37751,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -37971,7 +37971,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -38191,7 +38191,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -38532,7 +38532,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -38752,7 +38752,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -38972,7 +38972,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -40308,7 +40308,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -40423,7 +40423,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -41520,7 +41520,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -41748,7 +41748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -41858,7 +41858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -42748,7 +42748,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -43298,7 +43298,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -43518,7 +43518,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -43738,7 +43738,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -44076,7 +44076,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -44406,7 +44406,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -44516,7 +44516,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -44846,7 +44846,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -44956,7 +44956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -45184,7 +45184,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -45404,7 +45404,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -45624,7 +45624,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -45734,7 +45734,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -46064,7 +46064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46182,7 +46182,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -46418,7 +46418,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -46638,7 +46638,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -46968,7 +46968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -47188,7 +47188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -47303,7 +47303,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -47633,7 +47633,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -48073,7 +48073,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -48183,7 +48183,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -48518,7 +48518,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -48628,7 +48628,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -48738,7 +48738,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -48958,7 +48958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -49178,7 +49178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -49398,7 +49398,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -49628,7 +49628,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -49738,7 +49738,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -49848,7 +49848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -49958,7 +49958,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -50178,7 +50178,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -50288,7 +50288,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -50398,7 +50398,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -50508,7 +50508,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -50618,7 +50618,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -50728,7 +50728,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -50736,7 +50736,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -50846,7 +50846,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -50956,7 +50956,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -51176,7 +51176,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -51286,7 +51286,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -51396,7 +51396,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -51616,7 +51616,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -51726,7 +51726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -51836,7 +51836,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -51954,7 +51954,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -52064,7 +52064,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -52174,7 +52174,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -52284,7 +52284,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -52394,7 +52394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -52724,7 +52724,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -53054,7 +53054,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -53172,7 +53172,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -53290,7 +53290,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -53400,7 +53400,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -53620,7 +53620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -53738,7 +53738,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -53848,7 +53848,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -53958,7 +53958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -54076,7 +54076,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -54186,7 +54186,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -54406,7 +54406,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -54524,7 +54524,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -54634,7 +54634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -54744,7 +54744,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -54752,7 +54752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -54862,7 +54862,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -55082,7 +55082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -55206,18 +55206,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55243,7 +55243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55270,7 +55270,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55298,7 +55298,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55324,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55350,7 +55350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55376,7 +55376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55402,7 +55402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55424,19 +55424,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55462,7 +55462,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55490,7 +55490,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55543,7 +55543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55569,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55595,7 +55595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55634,142 +55634,142 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" s="15" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" s="34" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -55784,7 +55784,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -55797,7 +55797,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -55810,7 +55810,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -55825,17 +55825,17 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
       <c r="K45" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>947</v>
       </c>
@@ -55844,7 +55844,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>948</v>
       </c>
@@ -55853,7 +55853,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>942</v>
       </c>
@@ -55879,22 +55879,22 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -55913,7 +55913,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -55930,7 +55930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -55947,7 +55947,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -55964,12 +55964,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -55983,7 +55983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -56011,7 +56011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -56298,7 +56298,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -56439,7 +56439,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -56578,7 +56578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -56719,7 +56719,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -56859,7 +56859,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C15" t="s">
         <v>125</v>
       </c>
@@ -57000,7 +57000,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -57143,7 +57143,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -57289,7 +57289,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -57568,7 +57568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -57848,7 +57848,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C22" t="s">
         <v>125</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -58131,7 +58131,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -58277,7 +58277,7 @@
         <v>2.9999999646824631</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -58418,7 +58418,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -58698,7 +58698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C29" t="s">
         <v>125</v>
       </c>
@@ -58980,7 +58980,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -59123,7 +59123,7 @@
         <v>7.4343675315878835E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -59268,7 +59268,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -59409,7 +59409,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -59548,7 +59548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -59687,7 +59687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -59828,7 +59828,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C36" t="s">
         <v>125</v>
       </c>
@@ -59969,7 +59969,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -60112,7 +60112,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -60535,7 +60535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -60674,7 +60674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -60813,7 +60813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C43" t="s">
         <v>125</v>
       </c>
@@ -60952,7 +60952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -61238,7 +61238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -61377,7 +61377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -61516,7 +61516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -61655,7 +61655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -61794,7 +61794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -61933,7 +61933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -62074,7 +62074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -62220,7 +62220,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -62638,7 +62638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -62777,7 +62777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -62916,7 +62916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -63057,7 +63057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -63341,7 +63341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -63480,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -63619,7 +63619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -63758,7 +63758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C64" t="s">
         <v>125</v>
       </c>
@@ -63897,7 +63897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -64038,7 +64038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -64183,7 +64183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -64322,7 +64322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -64461,7 +64461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -64600,7 +64600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -64739,7 +64739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C71" t="s">
         <v>125</v>
       </c>
@@ -64878,7 +64878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -65019,7 +65019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -65164,7 +65164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -65303,7 +65303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -65442,7 +65442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -65581,7 +65581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -65720,7 +65720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -66000,7 +66000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -66146,7 +66146,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -66286,7 +66286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -66425,7 +66425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -66565,7 +66565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -66705,7 +66705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C85" t="s">
         <v>125</v>
       </c>
@@ -66845,7 +66845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -66987,7 +66987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -66997,142 +66997,144 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
+      <c r="D87" s="22">
+        <f>D31</f>
+        <v>0.05</v>
+      </c>
+      <c r="E87" s="22">
+        <f>E31</f>
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="str">
         <f>IF(D87=E87,"n/a",IF(OR(C87="battery electric vehicle",C87="natural gas vehicle",C87="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <v>s-curve</v>
       </c>
       <c r="H87" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D87</f>
+        <v>0.05</v>
       </c>
       <c r="I87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="J87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
+        <v>0.23792530586934735</v>
       </c>
       <c r="K87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
+        <v>0.36522161644024215</v>
       </c>
       <c r="L87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="M87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
+        <v>0.68477838355975784</v>
       </c>
       <c r="N87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
+        <v>0.81207469413065259</v>
       </c>
       <c r="O87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
+        <v>0.89635801986416774</v>
       </c>
       <c r="P87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
+        <v>0.94554203289607475</v>
       </c>
       <c r="Q87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
+        <v>0.97215338078621139</v>
       </c>
       <c r="R87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
+        <v>0.98596466989139064</v>
       </c>
       <c r="S87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
+        <v>0.9929780357229322</v>
       </c>
       <c r="T87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
+        <v>0.99649997209553587</v>
       </c>
       <c r="U87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
+        <v>0.9982587080046319</v>
       </c>
       <c r="V87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
+        <v>0.99913450136531945</v>
       </c>
       <c r="W87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
+        <v>0.99957000888792158</v>
       </c>
       <c r="X87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
+        <v>0.99978642406827833</v>
       </c>
       <c r="Y87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
+        <v>0.99989392932640198</v>
       </c>
       <c r="Z87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
+        <v>0.99994732390151331</v>
       </c>
       <c r="AA87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
+        <v>0.99997384109344112</v>
       </c>
       <c r="AB87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
+        <v>0.99998700969136967</v>
       </c>
       <c r="AC87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
+        <v>0.99999354915923688</v>
       </c>
       <c r="AD87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
+        <v>0.99999679659632945</v>
       </c>
       <c r="AE87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
+        <v>0.99999840923411476</v>
       </c>
       <c r="AF87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
+        <v>0.99999921004837367</v>
       </c>
       <c r="AG87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
+        <v>0.99999960772146745</v>
       </c>
       <c r="AH87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
+        <v>0.99999980520020537</v>
       </c>
       <c r="AI87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
+        <v>0.99999990326527477</v>
       </c>
       <c r="AJ87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
+        <v>0.99999995196295466</v>
       </c>
       <c r="AK87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
+        <v>0.99999997614550851</v>
       </c>
       <c r="AL87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
+        <v>0.9999999881542101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -67271,15 +67273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89" s="7" t="str">
         <f>IF(D89=E89,"n/a",IF(OR(C89="battery electric vehicle",C89="natural gas vehicle",C89="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -67287,130 +67289,130 @@
       </c>
       <c r="H89" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -67550,7 +67552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -67689,7 +67691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C92" t="s">
         <v>125</v>
       </c>
@@ -67828,7 +67830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D410E-8F72-4130-9603-507C7A2A1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F070469-0C1F-4F3E-A45D-86BB9DCC67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8675" yWindow="190" windowWidth="10435" windowHeight="10070" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4733,17 +4733,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4751,499 +4751,499 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>55</v>
       </c>
@@ -5267,18 +5267,18 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.40625" customWidth="1"/>
-    <col min="3" max="9" width="11.54296875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="9" width="11.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>743.5886494688923</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>14.614802219298447</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -5460,12 +5460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>129</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>13.150652503793626</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -5647,17 +5647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>129</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>3.2526122463528718E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2.1728250476622042E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -5860,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.7230904647520633E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -6106,12 +6106,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -7190,12 +7190,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -8270,16 +8270,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -9337,12 +9337,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -10421,12 +10421,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -11505,12 +11505,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12589,12 +12589,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -13673,12 +13673,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -14757,12 +14757,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -15836,9 +15836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15936,27 +15936,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22188,12 +22188,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -23269,15 +23269,15 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -23422,127 +23422,127 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Data!I87</f>
-        <v>0.15364198013583233</v>
+        <f>Data!I80</f>
+        <v>0.10909682119561298</v>
       </c>
       <c r="E2">
-        <f>Data!J87</f>
-        <v>0.23792530586934735</v>
+        <f>Data!J80</f>
+        <v>0.19781611144141825</v>
       </c>
       <c r="F2">
-        <f>Data!K87</f>
-        <v>0.36522161644024215</v>
+        <f>Data!K80</f>
+        <v>0.33181222783183389</v>
       </c>
       <c r="G2">
-        <f>Data!L87</f>
-        <v>0.52500000000000002</v>
+        <f>Data!L80</f>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <f>Data!M87</f>
-        <v>0.68477838355975784</v>
+        <f>Data!M80</f>
+        <v>0.66818777216816616</v>
       </c>
       <c r="I2">
-        <f>Data!N87</f>
-        <v>0.81207469413065259</v>
+        <f>Data!N80</f>
+        <v>0.80218388855858169</v>
       </c>
       <c r="J2">
-        <f>Data!O87</f>
-        <v>0.89635801986416774</v>
+        <f>Data!O80</f>
+        <v>0.89090317880438707</v>
       </c>
       <c r="K2">
-        <f>Data!P87</f>
-        <v>0.94554203289607475</v>
+        <f>Data!P80</f>
+        <v>0.94267582410113127</v>
       </c>
       <c r="L2">
-        <f>Data!Q87</f>
-        <v>0.97215338078621139</v>
+        <f>Data!Q80</f>
+        <v>0.97068776924864364</v>
       </c>
       <c r="M2">
-        <f>Data!R87</f>
-        <v>0.98596466989139064</v>
+        <f>Data!R80</f>
+        <v>0.98522596830672693</v>
       </c>
       <c r="N2">
-        <f>Data!S87</f>
-        <v>0.9929780357229322</v>
+        <f>Data!S80</f>
+        <v>0.99260845865571812</v>
       </c>
       <c r="O2">
-        <f>Data!T87</f>
-        <v>0.99649997209553587</v>
+        <f>Data!T80</f>
+        <v>0.99631576010056411</v>
       </c>
       <c r="P2">
-        <f>Data!U87</f>
-        <v>0.9982587080046319</v>
+        <f>Data!U80</f>
+        <v>0.99816706105750719</v>
       </c>
       <c r="Q2">
-        <f>Data!V87</f>
-        <v>0.99913450136531945</v>
+        <f>Data!V80</f>
+        <v>0.9990889488055994</v>
       </c>
       <c r="R2">
-        <f>Data!W87</f>
-        <v>0.99957000888792158</v>
+        <f>Data!W80</f>
+        <v>0.9995473777767595</v>
       </c>
       <c r="S2">
-        <f>Data!X87</f>
-        <v>0.99978642406827833</v>
+        <f>Data!X80</f>
+        <v>0.99977518322976666</v>
       </c>
       <c r="T2">
-        <f>Data!Y87</f>
-        <v>0.99989392932640198</v>
+        <f>Data!Y80</f>
+        <v>0.99988834665937043</v>
       </c>
       <c r="U2">
-        <f>Data!Z87</f>
-        <v>0.99994732390151331</v>
+        <f>Data!Z80</f>
+        <v>0.99994455147527717</v>
       </c>
       <c r="V2">
-        <f>Data!AA87</f>
-        <v>0.99997384109344112</v>
+        <f>Data!AA80</f>
+        <v>0.99997246430888531</v>
       </c>
       <c r="W2">
-        <f>Data!AB87</f>
-        <v>0.99998700969136967</v>
+        <f>Data!AB80</f>
+        <v>0.99998632599091541</v>
       </c>
       <c r="X2">
-        <f>Data!AC87</f>
-        <v>0.99999354915923688</v>
+        <f>Data!AC80</f>
+        <v>0.99999320964130201</v>
       </c>
       <c r="Y2">
-        <f>Data!AD87</f>
-        <v>0.99999679659632945</v>
+        <f>Data!AD80</f>
+        <v>0.99999662799613631</v>
       </c>
       <c r="Z2">
-        <f>Data!AE87</f>
-        <v>0.99999840923411476</v>
+        <f>Data!AE80</f>
+        <v>0.99999832550959444</v>
       </c>
       <c r="AA2">
-        <f>Data!AF87</f>
-        <v>0.99999921004837367</v>
+        <f>Data!AF80</f>
+        <v>0.99999916847197223</v>
       </c>
       <c r="AB2">
-        <f>Data!AG87</f>
-        <v>0.99999960772146745</v>
+        <f>Data!AG80</f>
+        <v>0.99999958707522896</v>
       </c>
       <c r="AC2">
-        <f>Data!AH87</f>
-        <v>0.99999980520020537</v>
+        <f>Data!AH80</f>
+        <v>0.99999979494758462</v>
       </c>
       <c r="AD2">
-        <f>Data!AI87</f>
-        <v>0.99999990326527477</v>
+        <f>Data!AI80</f>
+        <v>0.99999989817397339</v>
       </c>
       <c r="AE2">
-        <f>Data!AJ87</f>
-        <v>0.99999995196295466</v>
+        <f>Data!AJ80</f>
+        <v>0.99999994943468906</v>
       </c>
       <c r="AF2">
-        <f>Data!AK87</f>
-        <v>0.99999997614550851</v>
+        <f>Data!AK80</f>
+        <v>0.99999997489000902</v>
       </c>
       <c r="AG2">
-        <f>Data!AL87</f>
-        <v>0.9999999881542101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL80</f>
+        <v>0.99999998753074737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23555,127 +23555,127 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Data!I88</f>
+        <f>Data!I81</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>Data!J88</f>
+        <f>Data!J81</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>Data!K88</f>
+        <f>Data!K81</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>Data!L88</f>
+        <f>Data!L81</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>Data!M88</f>
+        <f>Data!M81</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>Data!N88</f>
+        <f>Data!N81</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>Data!O88</f>
+        <f>Data!O81</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>Data!P88</f>
+        <f>Data!P81</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>Data!Q88</f>
+        <f>Data!Q81</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>Data!R88</f>
+        <f>Data!R81</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>Data!S88</f>
+        <f>Data!S81</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>Data!T88</f>
+        <f>Data!T81</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>Data!U88</f>
+        <f>Data!U81</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>Data!V88</f>
+        <f>Data!V81</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>Data!W88</f>
+        <f>Data!W81</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>Data!X88</f>
+        <f>Data!X81</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>Data!Y88</f>
+        <f>Data!Y81</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>Data!Z88</f>
+        <f>Data!Z81</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>Data!AA88</f>
+        <f>Data!AA81</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>Data!AB88</f>
+        <f>Data!AB81</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>Data!AC88</f>
+        <f>Data!AC81</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>Data!AD88</f>
+        <f>Data!AD81</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>Data!AE88</f>
+        <f>Data!AE81</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>Data!AF88</f>
+        <f>Data!AF81</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>Data!AG88</f>
+        <f>Data!AG81</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>Data!AH88</f>
+        <f>Data!AH81</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>Data!AI88</f>
+        <f>Data!AI81</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>Data!AJ88</f>
+        <f>Data!AJ81</f>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f>Data!AK88</f>
+        <f>Data!AK81</f>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f>Data!AL88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -23688,127 +23688,127 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>Data!I89</f>
-        <v>5</v>
+        <f>Data!I82</f>
+        <v>3</v>
       </c>
       <c r="E4">
-        <f>Data!J89</f>
-        <v>5</v>
+        <f>Data!J82</f>
+        <v>3</v>
       </c>
       <c r="F4">
-        <f>Data!K89</f>
-        <v>5</v>
+        <f>Data!K82</f>
+        <v>3</v>
       </c>
       <c r="G4">
-        <f>Data!L89</f>
-        <v>5</v>
+        <f>Data!L82</f>
+        <v>3</v>
       </c>
       <c r="H4">
-        <f>Data!M89</f>
-        <v>5</v>
+        <f>Data!M82</f>
+        <v>3</v>
       </c>
       <c r="I4">
-        <f>Data!N89</f>
-        <v>5</v>
+        <f>Data!N82</f>
+        <v>3</v>
       </c>
       <c r="J4">
-        <f>Data!O89</f>
-        <v>5</v>
+        <f>Data!O82</f>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>Data!P89</f>
-        <v>5</v>
+        <f>Data!P82</f>
+        <v>3</v>
       </c>
       <c r="L4">
-        <f>Data!Q89</f>
-        <v>5</v>
+        <f>Data!Q82</f>
+        <v>3</v>
       </c>
       <c r="M4">
-        <f>Data!R89</f>
-        <v>5</v>
+        <f>Data!R82</f>
+        <v>3</v>
       </c>
       <c r="N4">
-        <f>Data!S89</f>
-        <v>5</v>
+        <f>Data!S82</f>
+        <v>3</v>
       </c>
       <c r="O4">
-        <f>Data!T89</f>
-        <v>5</v>
+        <f>Data!T82</f>
+        <v>3</v>
       </c>
       <c r="P4">
-        <f>Data!U89</f>
-        <v>5</v>
+        <f>Data!U82</f>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <f>Data!V89</f>
-        <v>5</v>
+        <f>Data!V82</f>
+        <v>3</v>
       </c>
       <c r="R4">
-        <f>Data!W89</f>
-        <v>5</v>
+        <f>Data!W82</f>
+        <v>3</v>
       </c>
       <c r="S4">
-        <f>Data!X89</f>
-        <v>5</v>
+        <f>Data!X82</f>
+        <v>3</v>
       </c>
       <c r="T4">
-        <f>Data!Y89</f>
-        <v>5</v>
+        <f>Data!Y82</f>
+        <v>3</v>
       </c>
       <c r="U4">
-        <f>Data!Z89</f>
-        <v>5</v>
+        <f>Data!Z82</f>
+        <v>3</v>
       </c>
       <c r="V4">
-        <f>Data!AA89</f>
-        <v>5</v>
+        <f>Data!AA82</f>
+        <v>3</v>
       </c>
       <c r="W4">
-        <f>Data!AB89</f>
-        <v>5</v>
+        <f>Data!AB82</f>
+        <v>3</v>
       </c>
       <c r="X4">
-        <f>Data!AC89</f>
-        <v>5</v>
+        <f>Data!AC82</f>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <f>Data!AD89</f>
-        <v>5</v>
+        <f>Data!AD82</f>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <f>Data!AE89</f>
-        <v>5</v>
+        <f>Data!AE82</f>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <f>Data!AF89</f>
-        <v>5</v>
+        <f>Data!AF82</f>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <f>Data!AG89</f>
-        <v>5</v>
+        <f>Data!AG82</f>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <f>Data!AH89</f>
-        <v>5</v>
+        <f>Data!AH82</f>
+        <v>3</v>
       </c>
       <c r="AD4">
-        <f>Data!AI89</f>
-        <v>5</v>
+        <f>Data!AI82</f>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <f>Data!AJ89</f>
-        <v>5</v>
+        <f>Data!AJ82</f>
+        <v>3</v>
       </c>
       <c r="AF4">
-        <f>Data!AK89</f>
-        <v>5</v>
+        <f>Data!AK82</f>
+        <v>3</v>
       </c>
       <c r="AG4">
-        <f>Data!AL89</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL82</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23821,127 +23821,127 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>Data!I90</f>
-        <v>5</v>
+        <f>Data!I83</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!J90</f>
-        <v>5</v>
+        <f>Data!J83</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>Data!K90</f>
-        <v>5</v>
+        <f>Data!K83</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>Data!L90</f>
-        <v>5</v>
+        <f>Data!L83</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>Data!M90</f>
-        <v>5</v>
+        <f>Data!M83</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>Data!N90</f>
-        <v>5</v>
+        <f>Data!N83</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>Data!O90</f>
-        <v>5</v>
+        <f>Data!O83</f>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>Data!P90</f>
-        <v>5</v>
+        <f>Data!P83</f>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>Data!Q90</f>
-        <v>5</v>
+        <f>Data!Q83</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>Data!R90</f>
-        <v>5</v>
+        <f>Data!R83</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>Data!S90</f>
-        <v>5</v>
+        <f>Data!S83</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>Data!T90</f>
-        <v>5</v>
+        <f>Data!T83</f>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>Data!U90</f>
-        <v>5</v>
+        <f>Data!U83</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>Data!V90</f>
-        <v>5</v>
+        <f>Data!V83</f>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>Data!W90</f>
-        <v>5</v>
+        <f>Data!W83</f>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>Data!X90</f>
-        <v>5</v>
+        <f>Data!X83</f>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f>Data!Y90</f>
-        <v>5</v>
+        <f>Data!Y83</f>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f>Data!Z90</f>
-        <v>5</v>
+        <f>Data!Z83</f>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f>Data!AA90</f>
-        <v>5</v>
+        <f>Data!AA83</f>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f>Data!AB90</f>
-        <v>5</v>
+        <f>Data!AB83</f>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f>Data!AC90</f>
-        <v>5</v>
+        <f>Data!AC83</f>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f>Data!AD90</f>
-        <v>5</v>
+        <f>Data!AD83</f>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f>Data!AE90</f>
-        <v>5</v>
+        <f>Data!AE83</f>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f>Data!AF90</f>
-        <v>5</v>
+        <f>Data!AF83</f>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f>Data!AG90</f>
-        <v>5</v>
+        <f>Data!AG83</f>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f>Data!AH90</f>
-        <v>5</v>
+        <f>Data!AH83</f>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f>Data!AI90</f>
-        <v>5</v>
+        <f>Data!AI83</f>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f>Data!AJ90</f>
-        <v>5</v>
+        <f>Data!AJ83</f>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f>Data!AK90</f>
-        <v>5</v>
+        <f>Data!AK83</f>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f>Data!AL90</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -23954,127 +23954,127 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f>Data!I91</f>
+        <f>Data!I84</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>Data!J91</f>
+        <f>Data!J84</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>Data!K91</f>
+        <f>Data!K84</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>Data!L91</f>
+        <f>Data!L84</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>Data!M91</f>
+        <f>Data!M84</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>Data!N91</f>
+        <f>Data!N84</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>Data!O91</f>
+        <f>Data!O84</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>Data!P91</f>
+        <f>Data!P84</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>Data!Q91</f>
+        <f>Data!Q84</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>Data!R91</f>
+        <f>Data!R84</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>Data!S91</f>
+        <f>Data!S84</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>Data!T91</f>
+        <f>Data!T84</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>Data!U91</f>
+        <f>Data!U84</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>Data!V91</f>
+        <f>Data!V84</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>Data!W91</f>
+        <f>Data!W84</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>Data!X91</f>
+        <f>Data!X84</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>Data!Y91</f>
+        <f>Data!Y84</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>Data!Z91</f>
+        <f>Data!Z84</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>Data!AA91</f>
+        <f>Data!AA84</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>Data!AB91</f>
+        <f>Data!AB84</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>Data!AC91</f>
+        <f>Data!AC84</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>Data!AD91</f>
+        <f>Data!AD84</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>Data!AE91</f>
+        <f>Data!AE84</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>Data!AF91</f>
+        <f>Data!AF84</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>Data!AG91</f>
+        <f>Data!AG84</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>Data!AH91</f>
+        <f>Data!AH84</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>Data!AI91</f>
+        <f>Data!AI84</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>Data!AJ91</f>
+        <f>Data!AJ84</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>Data!AK91</f>
+        <f>Data!AK84</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>Data!AL91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -24087,127 +24087,127 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>Data!I92</f>
+        <f>Data!I85</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>Data!J92</f>
+        <f>Data!J85</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>Data!K92</f>
+        <f>Data!K85</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>Data!L92</f>
+        <f>Data!L85</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>Data!M92</f>
+        <f>Data!M85</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>Data!N92</f>
+        <f>Data!N85</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>Data!O92</f>
+        <f>Data!O85</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>Data!P92</f>
+        <f>Data!P85</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>Data!Q92</f>
+        <f>Data!Q85</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>Data!R92</f>
+        <f>Data!R85</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>Data!S92</f>
+        <f>Data!S85</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>Data!T92</f>
+        <f>Data!T85</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>Data!U92</f>
+        <f>Data!U85</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>Data!V92</f>
+        <f>Data!V85</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>Data!W92</f>
+        <f>Data!W85</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>Data!X92</f>
+        <f>Data!X85</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>Data!Y92</f>
+        <f>Data!Y85</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>Data!Z92</f>
+        <f>Data!Z85</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>Data!AA92</f>
+        <f>Data!AA85</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>Data!AB92</f>
+        <f>Data!AB85</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>Data!AC92</f>
+        <f>Data!AC85</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>Data!AD92</f>
+        <f>Data!AD85</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>Data!AE92</f>
+        <f>Data!AE85</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>Data!AF92</f>
+        <f>Data!AF85</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>Data!AG92</f>
+        <f>Data!AG85</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>Data!AH92</f>
+        <f>Data!AH85</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>Data!AI92</f>
+        <f>Data!AI85</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>Data!AJ92</f>
+        <f>Data!AJ85</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>Data!AK92</f>
+        <f>Data!AK85</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>Data!AL92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+        <f>Data!AL85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -24220,123 +24220,123 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>Data!I93</f>
+        <f>Data!I86</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>Data!J93</f>
+        <f>Data!J86</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>Data!K93</f>
+        <f>Data!K86</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>Data!L93</f>
+        <f>Data!L86</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>Data!M93</f>
+        <f>Data!M86</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>Data!N93</f>
+        <f>Data!N86</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>Data!O93</f>
+        <f>Data!O86</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>Data!P93</f>
+        <f>Data!P86</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>Data!Q93</f>
+        <f>Data!Q86</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>Data!R93</f>
+        <f>Data!R86</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>Data!S93</f>
+        <f>Data!S86</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>Data!T93</f>
+        <f>Data!T86</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>Data!U93</f>
+        <f>Data!U86</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>Data!V93</f>
+        <f>Data!V86</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>Data!W93</f>
+        <f>Data!W86</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>Data!X93</f>
+        <f>Data!X86</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>Data!Y93</f>
+        <f>Data!Y86</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>Data!Z93</f>
+        <f>Data!Z86</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>Data!AA93</f>
+        <f>Data!AA86</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>Data!AB93</f>
+        <f>Data!AB86</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>Data!AC93</f>
+        <f>Data!AC86</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>Data!AD93</f>
+        <f>Data!AD86</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>Data!AE93</f>
+        <f>Data!AE86</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>Data!AF93</f>
+        <f>Data!AF86</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>Data!AG93</f>
+        <f>Data!AG86</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>Data!AH93</f>
+        <f>Data!AH86</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>Data!AI93</f>
+        <f>Data!AI86</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>Data!AJ93</f>
+        <f>Data!AJ86</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>Data!AK93</f>
+        <f>Data!AK86</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>Data!AL93</f>
+        <f>Data!AL86</f>
         <v>0</v>
       </c>
     </row>
@@ -24352,16 +24352,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -24493,935 +24493,935 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>C2</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B2</f>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <f>Data!H80</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C2</f>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <f>Data!I80</f>
-        <v>0.10909682119561298</v>
+        <f>'TTS-HDVs-frgt'!D2</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="E2">
-        <f>Data!J80</f>
-        <v>0.19781611144141825</v>
+        <f>'TTS-HDVs-frgt'!E2</f>
+        <v>0.23792530586934735</v>
       </c>
       <c r="F2">
-        <f>Data!K80</f>
-        <v>0.33181222783183389</v>
+        <f>'TTS-HDVs-frgt'!F2</f>
+        <v>0.36522161644024215</v>
       </c>
       <c r="G2">
-        <f>Data!L80</f>
-        <v>0.5</v>
+        <f>'TTS-HDVs-frgt'!G2</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H2">
-        <f>Data!M80</f>
-        <v>0.66818777216816616</v>
+        <f>'TTS-HDVs-frgt'!H2</f>
+        <v>0.68477838355975784</v>
       </c>
       <c r="I2">
-        <f>Data!N80</f>
-        <v>0.80218388855858169</v>
+        <f>'TTS-HDVs-frgt'!I2</f>
+        <v>0.81207469413065259</v>
       </c>
       <c r="J2">
-        <f>Data!O80</f>
-        <v>0.89090317880438707</v>
+        <f>'TTS-HDVs-frgt'!J2</f>
+        <v>0.89635801986416774</v>
       </c>
       <c r="K2">
-        <f>Data!P80</f>
-        <v>0.94267582410113127</v>
+        <f>'TTS-HDVs-frgt'!K2</f>
+        <v>0.94554203289607475</v>
       </c>
       <c r="L2">
-        <f>Data!Q80</f>
-        <v>0.97068776924864364</v>
+        <f>'TTS-HDVs-frgt'!L2</f>
+        <v>0.97215338078621139</v>
       </c>
       <c r="M2">
-        <f>Data!R80</f>
-        <v>0.98522596830672693</v>
+        <f>'TTS-HDVs-frgt'!M2</f>
+        <v>0.98596466989139064</v>
       </c>
       <c r="N2">
-        <f>Data!S80</f>
-        <v>0.99260845865571812</v>
+        <f>'TTS-HDVs-frgt'!N2</f>
+        <v>0.9929780357229322</v>
       </c>
       <c r="O2">
-        <f>Data!T80</f>
-        <v>0.99631576010056411</v>
+        <f>'TTS-HDVs-frgt'!O2</f>
+        <v>0.99649997209553587</v>
       </c>
       <c r="P2">
-        <f>Data!U80</f>
-        <v>0.99816706105750719</v>
+        <f>'TTS-HDVs-frgt'!P2</f>
+        <v>0.9982587080046319</v>
       </c>
       <c r="Q2">
-        <f>Data!V80</f>
-        <v>0.9990889488055994</v>
+        <f>'TTS-HDVs-frgt'!Q2</f>
+        <v>0.99913450136531945</v>
       </c>
       <c r="R2">
-        <f>Data!W80</f>
-        <v>0.9995473777767595</v>
+        <f>'TTS-HDVs-frgt'!R2</f>
+        <v>0.99957000888792158</v>
       </c>
       <c r="S2">
-        <f>Data!X80</f>
-        <v>0.99977518322976666</v>
+        <f>'TTS-HDVs-frgt'!S2</f>
+        <v>0.99978642406827833</v>
       </c>
       <c r="T2">
-        <f>Data!Y80</f>
-        <v>0.99988834665937043</v>
+        <f>'TTS-HDVs-frgt'!T2</f>
+        <v>0.99989392932640198</v>
       </c>
       <c r="U2">
-        <f>Data!Z80</f>
-        <v>0.99994455147527717</v>
+        <f>'TTS-HDVs-frgt'!U2</f>
+        <v>0.99994732390151331</v>
       </c>
       <c r="V2">
-        <f>Data!AA80</f>
-        <v>0.99997246430888531</v>
+        <f>'TTS-HDVs-frgt'!V2</f>
+        <v>0.99997384109344112</v>
       </c>
       <c r="W2">
-        <f>Data!AB80</f>
-        <v>0.99998632599091541</v>
+        <f>'TTS-HDVs-frgt'!W2</f>
+        <v>0.99998700969136967</v>
       </c>
       <c r="X2">
-        <f>Data!AC80</f>
-        <v>0.99999320964130201</v>
+        <f>'TTS-HDVs-frgt'!X2</f>
+        <v>0.99999354915923688</v>
       </c>
       <c r="Y2">
-        <f>Data!AD80</f>
-        <v>0.99999662799613631</v>
+        <f>'TTS-HDVs-frgt'!Y2</f>
+        <v>0.99999679659632945</v>
       </c>
       <c r="Z2">
-        <f>Data!AE80</f>
-        <v>0.99999832550959444</v>
+        <f>'TTS-HDVs-frgt'!Z2</f>
+        <v>0.99999840923411476</v>
       </c>
       <c r="AA2">
-        <f>Data!AF80</f>
-        <v>0.99999916847197223</v>
+        <f>'TTS-HDVs-frgt'!AA2</f>
+        <v>0.99999921004837367</v>
       </c>
       <c r="AB2">
-        <f>Data!AG80</f>
-        <v>0.99999958707522896</v>
+        <f>'TTS-HDVs-frgt'!AB2</f>
+        <v>0.99999960772146745</v>
       </c>
       <c r="AC2">
-        <f>Data!AH80</f>
-        <v>0.99999979494758462</v>
+        <f>'TTS-HDVs-frgt'!AC2</f>
+        <v>0.99999980520020537</v>
       </c>
       <c r="AD2">
-        <f>Data!AI80</f>
-        <v>0.99999989817397339</v>
+        <f>'TTS-HDVs-frgt'!AD2</f>
+        <v>0.99999990326527477</v>
       </c>
       <c r="AE2">
-        <f>Data!AJ80</f>
-        <v>0.99999994943468906</v>
+        <f>'TTS-HDVs-frgt'!AE2</f>
+        <v>0.99999995196295466</v>
       </c>
       <c r="AF2">
-        <f>Data!AK80</f>
-        <v>0.99999997489000902</v>
+        <f>'TTS-HDVs-frgt'!AF2</f>
+        <v>0.99999997614550851</v>
       </c>
       <c r="AG2">
-        <f>Data!AL80</f>
-        <v>0.99999998753074737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG2</f>
+        <v>0.9999999881542101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">C3</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B3</f>
+        <v>7.2809767943268324E-3</v>
       </c>
       <c r="C3">
-        <f>Data!H81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C3</f>
+        <v>7.2809767943268324E-3</v>
       </c>
       <c r="D3">
-        <f>Data!I81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!D3</f>
+        <v>7.9539756206734417E-3</v>
       </c>
       <c r="E3">
-        <f>Data!J81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!E3</f>
+        <v>8.1847586969656192E-3</v>
       </c>
       <c r="F3">
-        <f>Data!K81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!F3</f>
+        <v>8.4925448911875676E-3</v>
       </c>
       <c r="G3">
-        <f>Data!L81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!G3</f>
+        <v>8.9013448244791796E-3</v>
       </c>
       <c r="H3">
-        <f>Data!M81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!H3</f>
+        <v>9.4413591225641757E-3</v>
       </c>
       <c r="I3">
-        <f>Data!N81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!I3</f>
+        <v>1.0149590832616918E-2</v>
       </c>
       <c r="J3">
-        <f>Data!O81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!J3</f>
+        <v>1.1069727778933097E-2</v>
       </c>
       <c r="K3">
-        <f>Data!P81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!K3</f>
+        <v>1.2250644800130824E-2</v>
       </c>
       <c r="L3">
-        <f>Data!Q81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!L3</f>
+        <v>1.3742693012081563E-2</v>
       </c>
       <c r="M3">
-        <f>Data!R81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!M3</f>
+        <v>1.5590974090003679E-2</v>
       </c>
       <c r="N3">
-        <f>Data!S81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!N3</f>
+        <v>1.7825325978606671E-2</v>
       </c>
       <c r="O3">
-        <f>Data!T81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!O3</f>
+        <v>2.0448042462451119E-2</v>
       </c>
       <c r="P3">
-        <f>Data!U81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!P3</f>
+        <v>2.342233177341109E-2</v>
       </c>
       <c r="Q3">
-        <f>Data!V81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Q3</f>
+        <v>2.666632080026762E-2</v>
       </c>
       <c r="R3">
-        <f>Data!W81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!R3</f>
+        <v>3.0057387469452152E-2</v>
       </c>
       <c r="S3">
-        <f>Data!X81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!S3</f>
+        <v>3.3448454138636688E-2</v>
       </c>
       <c r="T3">
-        <f>Data!Y81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!T3</f>
+        <v>3.6692443165493215E-2</v>
       </c>
       <c r="U3">
-        <f>Data!Z81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!U3</f>
+        <v>3.9666732476453186E-2</v>
       </c>
       <c r="V3">
-        <f>Data!AA81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!V3</f>
+        <v>4.2289448960297633E-2</v>
       </c>
       <c r="W3">
-        <f>Data!AB81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!W3</f>
+        <v>4.4523800848900626E-2</v>
       </c>
       <c r="X3">
-        <f>Data!AC81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!X3</f>
+        <v>4.6372081926822753E-2</v>
       </c>
       <c r="Y3">
-        <f>Data!AD81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Y3</f>
+        <v>4.7864130138773484E-2</v>
       </c>
       <c r="Z3">
-        <f>Data!AE81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Z3</f>
+        <v>4.9045047159971211E-2</v>
       </c>
       <c r="AA3">
-        <f>Data!AF81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AA3</f>
+        <v>4.9965184106287391E-2</v>
       </c>
       <c r="AB3">
-        <f>Data!AG81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AB3</f>
+        <v>5.0673415816340134E-2</v>
       </c>
       <c r="AC3">
-        <f>Data!AH81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AC3</f>
+        <v>5.1213430114425126E-2</v>
       </c>
       <c r="AD3">
-        <f>Data!AI81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AD3</f>
+        <v>5.1622230047716738E-2</v>
       </c>
       <c r="AE3">
-        <f>Data!AJ81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AE3</f>
+        <v>5.1930016241938694E-2</v>
       </c>
       <c r="AF3">
-        <f>Data!AK81</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AF3</f>
+        <v>5.2160799318230866E-2</v>
       </c>
       <c r="AG3">
-        <f>Data!AL81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG3</f>
+        <v>5.2333311909740617E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!B4</f>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <f>Data!H82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!C4</f>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <f>Data!I82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!D4</f>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <f>Data!J82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!E4</f>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <f>Data!K82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!F4</f>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <f>Data!L82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!G4</f>
+        <v>0.01</v>
       </c>
       <c r="H4">
-        <f>Data!M82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!H4</f>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <f>Data!N82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!I4</f>
+        <v>0.01</v>
       </c>
       <c r="J4">
-        <f>Data!O82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!J4</f>
+        <v>0.01</v>
       </c>
       <c r="K4">
-        <f>Data!P82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!K4</f>
+        <v>0.01</v>
       </c>
       <c r="L4">
-        <f>Data!Q82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!L4</f>
+        <v>0.01</v>
       </c>
       <c r="M4">
-        <f>Data!R82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!M4</f>
+        <v>0.01</v>
       </c>
       <c r="N4">
-        <f>Data!S82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!N4</f>
+        <v>0.01</v>
       </c>
       <c r="O4">
-        <f>Data!T82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!O4</f>
+        <v>0.01</v>
       </c>
       <c r="P4">
-        <f>Data!U82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!P4</f>
+        <v>0.01</v>
       </c>
       <c r="Q4">
-        <f>Data!V82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!Q4</f>
+        <v>0.01</v>
       </c>
       <c r="R4">
-        <f>Data!W82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!R4</f>
+        <v>0.01</v>
       </c>
       <c r="S4">
-        <f>Data!X82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!S4</f>
+        <v>0.01</v>
       </c>
       <c r="T4">
-        <f>Data!Y82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!T4</f>
+        <v>0.01</v>
       </c>
       <c r="U4">
-        <f>Data!Z82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!U4</f>
+        <v>0.01</v>
       </c>
       <c r="V4">
-        <f>Data!AA82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!V4</f>
+        <v>0.01</v>
       </c>
       <c r="W4">
-        <f>Data!AB82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!W4</f>
+        <v>0.01</v>
       </c>
       <c r="X4">
-        <f>Data!AC82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!X4</f>
+        <v>0.01</v>
       </c>
       <c r="Y4">
-        <f>Data!AD82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!Y4</f>
+        <v>0.01</v>
       </c>
       <c r="Z4">
-        <f>Data!AE82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!Z4</f>
+        <v>0.01</v>
       </c>
       <c r="AA4">
-        <f>Data!AF82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AA4</f>
+        <v>0.01</v>
       </c>
       <c r="AB4">
-        <f>Data!AG82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AB4</f>
+        <v>0.01</v>
       </c>
       <c r="AC4">
-        <f>Data!AH82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AC4</f>
+        <v>0.01</v>
       </c>
       <c r="AD4">
-        <f>Data!AI82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AD4</f>
+        <v>0.01</v>
       </c>
       <c r="AE4">
-        <f>Data!AJ82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AE4</f>
+        <v>0.01</v>
       </c>
       <c r="AF4">
-        <f>Data!AK82</f>
-        <v>3</v>
+        <f>'TTS-HDVs-frgt'!AF4</f>
+        <v>0.01</v>
       </c>
       <c r="AG4">
-        <f>Data!AL82</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG4</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B5</f>
+        <v>5</v>
       </c>
       <c r="C5">
-        <f>Data!H83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C5</f>
+        <v>5</v>
       </c>
       <c r="D5">
-        <f>Data!I83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!D5</f>
+        <v>5</v>
       </c>
       <c r="E5">
-        <f>Data!J83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!E5</f>
+        <v>5</v>
       </c>
       <c r="F5">
-        <f>Data!K83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!F5</f>
+        <v>5</v>
       </c>
       <c r="G5">
-        <f>Data!L83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!G5</f>
+        <v>5</v>
       </c>
       <c r="H5">
-        <f>Data!M83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!H5</f>
+        <v>5</v>
       </c>
       <c r="I5">
-        <f>Data!N83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!I5</f>
+        <v>5</v>
       </c>
       <c r="J5">
-        <f>Data!O83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!J5</f>
+        <v>5</v>
       </c>
       <c r="K5">
-        <f>Data!P83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!K5</f>
+        <v>5</v>
       </c>
       <c r="L5">
-        <f>Data!Q83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!L5</f>
+        <v>5</v>
       </c>
       <c r="M5">
-        <f>Data!R83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!M5</f>
+        <v>5</v>
       </c>
       <c r="N5">
-        <f>Data!S83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!N5</f>
+        <v>5</v>
       </c>
       <c r="O5">
-        <f>Data!T83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!O5</f>
+        <v>5</v>
       </c>
       <c r="P5">
-        <f>Data!U83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!P5</f>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <f>Data!V83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Q5</f>
+        <v>5</v>
       </c>
       <c r="R5">
-        <f>Data!W83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!R5</f>
+        <v>5</v>
       </c>
       <c r="S5">
-        <f>Data!X83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!S5</f>
+        <v>5</v>
       </c>
       <c r="T5">
-        <f>Data!Y83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!T5</f>
+        <v>5</v>
       </c>
       <c r="U5">
-        <f>Data!Z83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!U5</f>
+        <v>5</v>
       </c>
       <c r="V5">
-        <f>Data!AA83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!V5</f>
+        <v>5</v>
       </c>
       <c r="W5">
-        <f>Data!AB83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!W5</f>
+        <v>5</v>
       </c>
       <c r="X5">
-        <f>Data!AC83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!X5</f>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <f>Data!AD83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Y5</f>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <f>Data!AE83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Z5</f>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <f>Data!AF83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AA5</f>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <f>Data!AG83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AB5</f>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <f>Data!AH83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AC5</f>
+        <v>5</v>
       </c>
       <c r="AD5">
-        <f>Data!AI83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AD5</f>
+        <v>5</v>
       </c>
       <c r="AE5">
-        <f>Data!AJ83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AE5</f>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <f>Data!AK83</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AF5</f>
+        <v>5</v>
       </c>
       <c r="AG5">
-        <f>Data!AL83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B6</f>
+        <v>2.1604589258675129E-3</v>
       </c>
       <c r="C6">
-        <f>Data!H84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C6</f>
+        <v>2.1604589258675129E-3</v>
       </c>
       <c r="D6">
-        <f>Data!I84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!D6</f>
+        <v>2.5363121187666543E-3</v>
       </c>
       <c r="E6">
-        <f>Data!J84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!E6</f>
+        <v>2.6651987567454672E-3</v>
       </c>
       <c r="F6">
-        <f>Data!K84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!F6</f>
+        <v>2.8370897308450499E-3</v>
       </c>
       <c r="G6">
-        <f>Data!L84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!G6</f>
+        <v>3.0653943788913106E-3</v>
       </c>
       <c r="H6">
-        <f>Data!M84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!H6</f>
+        <v>3.3669790031145663E-3</v>
       </c>
       <c r="I6">
-        <f>Data!N84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!I6</f>
+        <v>3.7625088898169965E-3</v>
       </c>
       <c r="J6">
-        <f>Data!O84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!J6</f>
+        <v>4.2763826079255159E-3</v>
       </c>
       <c r="K6">
-        <f>Data!P84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!K6</f>
+        <v>4.9358955455268607E-3</v>
       </c>
       <c r="L6">
-        <f>Data!Q84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!L6</f>
+        <v>5.7691675550270976E-3</v>
       </c>
       <c r="M6">
-        <f>Data!R84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!M6</f>
+        <v>6.8013868061113751E-3</v>
       </c>
       <c r="N6">
-        <f>Data!S84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!N6</f>
+        <v>8.0492170526371733E-3</v>
       </c>
       <c r="O6">
-        <f>Data!T84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!O6</f>
+        <v>9.5139393165278099E-3</v>
       </c>
       <c r="P6">
-        <f>Data!U84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!P6</f>
+        <v>1.1175006305602102E-2</v>
       </c>
       <c r="Q6">
-        <f>Data!V84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Q6</f>
+        <v>1.298669391298265E-2</v>
       </c>
       <c r="R6">
-        <f>Data!W84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!R6</f>
+        <v>1.4880520744547505E-2</v>
       </c>
       <c r="S6">
-        <f>Data!X84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!S6</f>
+        <v>1.6774347576112358E-2</v>
       </c>
       <c r="T6">
-        <f>Data!Y84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!T6</f>
+        <v>1.8586035183492906E-2</v>
       </c>
       <c r="U6">
-        <f>Data!Z84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!U6</f>
+        <v>2.0247102172567196E-2</v>
       </c>
       <c r="V6">
-        <f>Data!AA84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!V6</f>
+        <v>2.1711824436457833E-2</v>
       </c>
       <c r="W6">
-        <f>Data!AB84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!W6</f>
+        <v>2.2959654682983631E-2</v>
       </c>
       <c r="X6">
-        <f>Data!AC84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!X6</f>
+        <v>2.399187393406791E-2</v>
       </c>
       <c r="Y6">
-        <f>Data!AD84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Y6</f>
+        <v>2.4825145943568147E-2</v>
       </c>
       <c r="Z6">
-        <f>Data!AE84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Z6</f>
+        <v>2.5484658881169492E-2</v>
       </c>
       <c r="AA6">
-        <f>Data!AF84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AA6</f>
+        <v>2.5998532599278014E-2</v>
       </c>
       <c r="AB6">
-        <f>Data!AG84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AB6</f>
+        <v>2.6394062485980443E-2</v>
       </c>
       <c r="AC6">
-        <f>Data!AH84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AC6</f>
+        <v>2.6695647110203696E-2</v>
       </c>
       <c r="AD6">
-        <f>Data!AI84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AD6</f>
+        <v>2.6923951758249957E-2</v>
       </c>
       <c r="AE6">
-        <f>Data!AJ84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AE6</f>
+        <v>2.7095842732349541E-2</v>
       </c>
       <c r="AF6">
-        <f>Data!AK84</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AF6</f>
+        <v>2.7224729370328354E-2</v>
       </c>
       <c r="AG6">
-        <f>Data!AL84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG6</f>
+        <v>2.7321073384308624E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="C7">
-        <f>Data!H85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="D7">
-        <f>Data!I85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!D7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="E7">
-        <f>Data!J85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!E7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="F7">
-        <f>Data!K85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!F7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="G7">
-        <f>Data!L85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!G7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="H7">
-        <f>Data!M85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!H7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="I7">
-        <f>Data!N85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!I7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="J7">
-        <f>Data!O85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!J7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="K7">
-        <f>Data!P85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!K7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="L7">
-        <f>Data!Q85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!L7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="M7">
-        <f>Data!R85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!M7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="N7">
-        <f>Data!S85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!N7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="O7">
-        <f>Data!T85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!O7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="P7">
-        <f>Data!U85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!P7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="Q7">
-        <f>Data!V85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Q7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="R7">
-        <f>Data!W85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!R7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="S7">
-        <f>Data!X85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!S7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="T7">
-        <f>Data!Y85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!T7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="U7">
-        <f>Data!Z85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!U7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="V7">
-        <f>Data!AA85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!V7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="W7">
-        <f>Data!AB85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!W7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="X7">
-        <f>Data!AC85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!X7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="Y7">
-        <f>Data!AD85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Y7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="Z7">
-        <f>Data!AE85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Z7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AA7">
-        <f>Data!AF85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AA7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AB7">
-        <f>Data!AG85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AB7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AC7">
-        <f>Data!AH85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AC7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AD7">
-        <f>Data!AI85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AD7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AE7">
-        <f>Data!AJ85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AE7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AF7">
-        <f>Data!AK85</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AF7</f>
+        <v>1.0208494207686616E-3</v>
       </c>
       <c r="AG7">
-        <f>Data!AL85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+        <f>'TTS-HDVs-frgt'!AG7</f>
+        <v>1.0208494207686616E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!B8</f>
+        <v>2.2506977162920506E-5</v>
       </c>
       <c r="C8">
-        <f>Data!H86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!C8</f>
+        <v>2.2506977162920506E-5</v>
       </c>
       <c r="D8">
-        <f>Data!I86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!D8</f>
+        <v>1.1328629514907667E-4</v>
       </c>
       <c r="E8">
-        <f>Data!J86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!E8</f>
+        <v>1.444161120943459E-4</v>
       </c>
       <c r="F8">
-        <f>Data!K86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!F8</f>
+        <v>1.8593270871116238E-4</v>
       </c>
       <c r="G8">
-        <f>Data!L86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!G8</f>
+        <v>2.410748243942677E-4</v>
       </c>
       <c r="H8">
-        <f>Data!M86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!H8</f>
+        <v>3.139161545181947E-4</v>
       </c>
       <c r="I8">
-        <f>Data!N86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!I8</f>
+        <v>4.0944795798919357E-4</v>
       </c>
       <c r="J8">
-        <f>Data!O86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!J8</f>
+        <v>5.3356318846275704E-4</v>
       </c>
       <c r="K8">
-        <f>Data!P86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!K8</f>
+        <v>6.9285446444391488E-4</v>
       </c>
       <c r="L8">
-        <f>Data!Q86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!L8</f>
+        <v>8.9411353619984948E-4</v>
       </c>
       <c r="M8">
-        <f>Data!R86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!M8</f>
+        <v>1.1434240685990161E-3</v>
       </c>
       <c r="N8">
-        <f>Data!S86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!N8</f>
+        <v>1.4448108357788989E-3</v>
       </c>
       <c r="O8">
-        <f>Data!T86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!O8</f>
+        <v>1.7985832412478915E-3</v>
       </c>
       <c r="P8">
-        <f>Data!U86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!P8</f>
+        <v>2.1997785250616603E-3</v>
       </c>
       <c r="Q8">
-        <f>Data!V86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Q8</f>
+        <v>2.6373530049626742E-3</v>
       </c>
       <c r="R8">
-        <f>Data!W86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!R8</f>
+        <v>3.0947664616031096E-3</v>
       </c>
       <c r="S8">
-        <f>Data!X86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!S8</f>
+        <v>3.5521799182435449E-3</v>
       </c>
       <c r="T8">
-        <f>Data!Y86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!T8</f>
+        <v>3.989754398144558E-3</v>
       </c>
       <c r="U8">
-        <f>Data!Z86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!U8</f>
+        <v>4.3909496819583265E-3</v>
       </c>
       <c r="V8">
-        <f>Data!AA86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!V8</f>
+        <v>4.7447220874273196E-3</v>
       </c>
       <c r="W8">
-        <f>Data!AB86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!W8</f>
+        <v>5.0461088546072024E-3</v>
       </c>
       <c r="X8">
-        <f>Data!AC86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!X8</f>
+        <v>5.2954193870063697E-3</v>
       </c>
       <c r="Y8">
-        <f>Data!AD86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Y8</f>
+        <v>5.4966784587623038E-3</v>
       </c>
       <c r="Z8">
-        <f>Data!AE86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!Z8</f>
+        <v>5.6559697347434617E-3</v>
       </c>
       <c r="AA8">
-        <f>Data!AF86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AA8</f>
+        <v>5.7800849652170248E-3</v>
       </c>
       <c r="AB8">
-        <f>Data!AG86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AB8</f>
+        <v>5.875616768688024E-3</v>
       </c>
       <c r="AC8">
-        <f>Data!AH86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AC8</f>
+        <v>5.948458098811951E-3</v>
       </c>
       <c r="AD8">
-        <f>Data!AI86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AD8</f>
+        <v>6.0036002144950558E-3</v>
       </c>
       <c r="AE8">
-        <f>Data!AJ86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AE8</f>
+        <v>6.0451168111118727E-3</v>
       </c>
       <c r="AF8">
-        <f>Data!AK86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AF8</f>
+        <v>6.0762466280571414E-3</v>
       </c>
       <c r="AG8">
-        <f>Data!AL86</f>
-        <v>0</v>
+        <f>'TTS-HDVs-frgt'!AG8</f>
+        <v>6.0995164686396177E-3</v>
       </c>
     </row>
   </sheetData>
@@ -25440,9 +25440,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -25540,27 +25540,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30019,29 +30019,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30111,7 +30111,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30321,7 +30321,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -30601,7 +30601,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -30741,7 +30741,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31182,9 +31182,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31282,27 +31282,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -31763,7 +31763,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -31873,7 +31873,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -32871,7 +32871,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -33091,7 +33091,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -33649,7 +33649,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -33759,7 +33759,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -34529,7 +34529,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -34749,7 +34749,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -36203,7 +36203,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -36423,7 +36423,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -36533,7 +36533,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -37091,7 +37091,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -37311,7 +37311,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -37641,7 +37641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -37751,7 +37751,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -37971,7 +37971,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -38191,7 +38191,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -38532,7 +38532,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -38752,7 +38752,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -38972,7 +38972,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -40308,7 +40308,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -40423,7 +40423,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -41520,7 +41520,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -41748,7 +41748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -41858,7 +41858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -42748,7 +42748,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -43298,7 +43298,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -43518,7 +43518,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -43738,7 +43738,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -44076,7 +44076,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -44406,7 +44406,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -44516,7 +44516,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -44846,7 +44846,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -44956,7 +44956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -45184,7 +45184,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -45404,7 +45404,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -45624,7 +45624,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -45734,7 +45734,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -46064,7 +46064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46182,7 +46182,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -46418,7 +46418,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -46638,7 +46638,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -46968,7 +46968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -47188,7 +47188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -47303,7 +47303,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -47633,7 +47633,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -48073,7 +48073,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -48183,7 +48183,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -48518,7 +48518,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -48628,7 +48628,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -48738,7 +48738,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -48958,7 +48958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -49178,7 +49178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -49398,7 +49398,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -49628,7 +49628,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -49738,7 +49738,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -49848,7 +49848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -49958,7 +49958,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -50178,7 +50178,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -50288,7 +50288,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -50398,7 +50398,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -50508,7 +50508,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -50618,7 +50618,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -50728,7 +50728,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -50736,7 +50736,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -50846,7 +50846,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -50956,7 +50956,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -51176,7 +51176,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -51286,7 +51286,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -51396,7 +51396,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -51616,7 +51616,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -51726,7 +51726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -51836,7 +51836,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -51954,7 +51954,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -52064,7 +52064,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -52174,7 +52174,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -52284,7 +52284,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -52394,7 +52394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -52724,7 +52724,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -53054,7 +53054,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -53172,7 +53172,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -53290,7 +53290,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -53400,7 +53400,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -53620,7 +53620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -53738,7 +53738,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -53848,7 +53848,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -53958,7 +53958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -54076,7 +54076,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -54186,7 +54186,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -54406,7 +54406,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -54524,7 +54524,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -54634,7 +54634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -54744,7 +54744,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -54752,7 +54752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -54862,7 +54862,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -55082,7 +55082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -55206,18 +55206,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55243,7 +55243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55270,7 +55270,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55298,7 +55298,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55324,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55350,7 +55350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55376,7 +55376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55402,7 +55402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55424,19 +55424,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55462,7 +55462,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55490,7 +55490,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55543,7 +55543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55569,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55595,7 +55595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55634,142 +55634,142 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.40625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -55784,7 +55784,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -55797,7 +55797,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -55810,7 +55810,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -55825,17 +55825,17 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>947</v>
       </c>
@@ -55844,7 +55844,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>948</v>
       </c>
@@ -55853,7 +55853,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>942</v>
       </c>
@@ -55879,22 +55879,22 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -55913,7 +55913,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -55930,7 +55930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -55947,7 +55947,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -55964,12 +55964,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -55983,7 +55983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -56011,7 +56011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -56298,7 +56298,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -56439,7 +56439,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -56578,7 +56578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -56719,7 +56719,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -56859,7 +56859,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>125</v>
       </c>
@@ -57000,7 +57000,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -57143,7 +57143,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -57289,7 +57289,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -57568,7 +57568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -57848,7 +57848,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>125</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -58131,7 +58131,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -58277,7 +58277,7 @@
         <v>2.9999999646824631</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -58418,7 +58418,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -58698,7 +58698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>125</v>
       </c>
@@ -58980,7 +58980,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -59123,7 +59123,7 @@
         <v>7.4343675315878835E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -59268,7 +59268,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -59409,7 +59409,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -59548,7 +59548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -59687,7 +59687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -59828,7 +59828,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>125</v>
       </c>
@@ -59969,7 +59969,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -60112,7 +60112,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -60535,7 +60535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -60674,7 +60674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -60813,7 +60813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>125</v>
       </c>
@@ -60952,7 +60952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -61238,7 +61238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -61377,7 +61377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -61516,7 +61516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -61655,7 +61655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -61794,7 +61794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -61933,7 +61933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -62074,7 +62074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -62220,7 +62220,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -62638,7 +62638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -62777,7 +62777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -62916,7 +62916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -63057,7 +63057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -63341,7 +63341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -63480,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -63619,7 +63619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -63758,7 +63758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>125</v>
       </c>
@@ -63897,7 +63897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -64038,7 +64038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -64183,7 +64183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -64322,7 +64322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -64461,7 +64461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -64600,7 +64600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -64739,7 +64739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>125</v>
       </c>
@@ -64878,7 +64878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -65019,7 +65019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -65164,7 +65164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -65303,7 +65303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -65442,7 +65442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -65581,7 +65581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -65720,7 +65720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -66000,7 +66000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -66146,7 +66146,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -66286,7 +66286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -66425,7 +66425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -66565,7 +66565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -66705,7 +66705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>125</v>
       </c>
@@ -66845,7 +66845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -66987,7 +66987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -66997,144 +66997,142 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="22">
-        <f>D31</f>
-        <v>0.05</v>
-      </c>
-      <c r="E87" s="22">
-        <f>E31</f>
-        <v>1</v>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
       </c>
       <c r="F87" s="7" t="str">
         <f>IF(D87=E87,"n/a",IF(OR(C87="battery electric vehicle",C87="natural gas vehicle",C87="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H87" s="22">
-        <f>D87</f>
-        <v>0.05</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
-        <v>0.15364198013583233</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
+        <v>0</v>
       </c>
       <c r="J87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
-        <v>0.23792530586934735</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
+        <v>0</v>
       </c>
       <c r="K87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
-        <v>0.36522161644024215</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
+        <v>0</v>
       </c>
       <c r="L87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
-        <v>0.52500000000000002</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
+        <v>0</v>
       </c>
       <c r="M87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
-        <v>0.68477838355975784</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
+        <v>0</v>
       </c>
       <c r="N87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
-        <v>0.81207469413065259</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
+        <v>0</v>
       </c>
       <c r="O87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
-        <v>0.89635801986416774</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
+        <v>0</v>
       </c>
       <c r="P87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
-        <v>0.94554203289607475</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
-        <v>0.97215338078621139</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
+        <v>0</v>
       </c>
       <c r="R87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
-        <v>0.98596466989139064</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
+        <v>0</v>
       </c>
       <c r="S87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
-        <v>0.9929780357229322</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
+        <v>0</v>
       </c>
       <c r="T87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
-        <v>0.99649997209553587</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
+        <v>0</v>
       </c>
       <c r="U87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
-        <v>0.9982587080046319</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
+        <v>0</v>
       </c>
       <c r="V87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
-        <v>0.99913450136531945</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
+        <v>0</v>
       </c>
       <c r="W87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
-        <v>0.99957000888792158</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
+        <v>0</v>
       </c>
       <c r="X87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
-        <v>0.99978642406827833</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
-        <v>0.99989392932640198</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
-        <v>0.99994732390151331</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
-        <v>0.99997384109344112</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
+        <v>0</v>
       </c>
       <c r="AB87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
-        <v>0.99998700969136967</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
-        <v>0.99999354915923688</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
+        <v>0</v>
       </c>
       <c r="AD87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
-        <v>0.99999679659632945</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
+        <v>0</v>
       </c>
       <c r="AE87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
-        <v>0.99999840923411476</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
+        <v>0</v>
       </c>
       <c r="AF87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
-        <v>0.99999921004837367</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
+        <v>0</v>
       </c>
       <c r="AG87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
-        <v>0.99999960772146745</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
+        <v>0</v>
       </c>
       <c r="AH87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
-        <v>0.99999980520020537</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
+        <v>0</v>
       </c>
       <c r="AI87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
-        <v>0.99999990326527477</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
+        <v>0</v>
       </c>
       <c r="AJ87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
-        <v>0.99999995196295466</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
+        <v>0</v>
       </c>
       <c r="AK87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
-        <v>0.99999997614550851</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
+        <v>0</v>
       </c>
       <c r="AL87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
-        <v>0.9999999881542101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.75">
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -67273,15 +67271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F89" s="7" t="str">
         <f>IF(D89=E89,"n/a",IF(OR(C89="battery electric vehicle",C89="natural gas vehicle",C89="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -67289,130 +67287,130 @@
       </c>
       <c r="H89" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,I$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,J$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,K$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,L$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,M$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,N$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,O$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,P$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Q$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,R$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,S$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,T$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,U$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,V$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,W$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,X$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Y$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Z$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AA$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AB$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AC$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AD$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AE$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AF$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AG$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AH$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AI$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AJ$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AK$9))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AL$9))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -67552,7 +67550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -67691,7 +67689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>125</v>
       </c>
@@ -67830,7 +67828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F070469-0C1F-4F3E-A45D-86BB9DCC67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCAB4A-B46B-44A2-A203-E40687351480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4733,17 +4733,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4751,499 +4751,499 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B14" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B20" s="34" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B33" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B35" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B40" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B60" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B73" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B76" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B79" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B84" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B90" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B101" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B102" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B112" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B116" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B117" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B123" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B124" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B125" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B126" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B127" t="s">
         <v>55</v>
       </c>
@@ -5267,18 +5267,18 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="9" width="11.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.40625" customWidth="1"/>
+    <col min="3" max="9" width="11.54296875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>743.5886494688923</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>14.614802219298447</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -5460,12 +5460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>129</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>13.150652503793626</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -5647,17 +5647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>129</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>3.2526122463528718E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2.1728250476622042E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -5860,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.7230904647520633E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -6106,12 +6106,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -7190,12 +7190,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -8270,16 +8270,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -9337,12 +9337,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -10421,12 +10421,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -11505,12 +11505,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12589,12 +12589,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -13673,12 +13673,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -14757,12 +14757,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -15836,9 +15836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15936,27 +15936,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22188,12 +22188,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -23269,15 +23269,15 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -24352,16 +24352,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -24493,935 +24493,935 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>'TTS-HDVs-frgt'!B2</f>
-        <v>0.05</v>
+        <f>D2</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="C2">
-        <f>'TTS-HDVs-frgt'!C2</f>
-        <v>0.05</v>
+        <f>D2</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="D2">
-        <f>'TTS-HDVs-frgt'!D2</f>
+        <f>Data!I87</f>
         <v>0.15364198013583233</v>
       </c>
       <c r="E2">
-        <f>'TTS-HDVs-frgt'!E2</f>
+        <f>Data!J87</f>
         <v>0.23792530586934735</v>
       </c>
       <c r="F2">
-        <f>'TTS-HDVs-frgt'!F2</f>
+        <f>Data!K87</f>
         <v>0.36522161644024215</v>
       </c>
       <c r="G2">
-        <f>'TTS-HDVs-frgt'!G2</f>
+        <f>Data!L87</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="H2">
-        <f>'TTS-HDVs-frgt'!H2</f>
+        <f>Data!M87</f>
         <v>0.68477838355975784</v>
       </c>
       <c r="I2">
-        <f>'TTS-HDVs-frgt'!I2</f>
+        <f>Data!N87</f>
         <v>0.81207469413065259</v>
       </c>
       <c r="J2">
-        <f>'TTS-HDVs-frgt'!J2</f>
+        <f>Data!O87</f>
         <v>0.89635801986416774</v>
       </c>
       <c r="K2">
-        <f>'TTS-HDVs-frgt'!K2</f>
+        <f>Data!P87</f>
         <v>0.94554203289607475</v>
       </c>
       <c r="L2">
-        <f>'TTS-HDVs-frgt'!L2</f>
+        <f>Data!Q87</f>
         <v>0.97215338078621139</v>
       </c>
       <c r="M2">
-        <f>'TTS-HDVs-frgt'!M2</f>
+        <f>Data!R87</f>
         <v>0.98596466989139064</v>
       </c>
       <c r="N2">
-        <f>'TTS-HDVs-frgt'!N2</f>
+        <f>Data!S87</f>
         <v>0.9929780357229322</v>
       </c>
       <c r="O2">
-        <f>'TTS-HDVs-frgt'!O2</f>
+        <f>Data!T87</f>
         <v>0.99649997209553587</v>
       </c>
       <c r="P2">
-        <f>'TTS-HDVs-frgt'!P2</f>
+        <f>Data!U87</f>
         <v>0.9982587080046319</v>
       </c>
       <c r="Q2">
-        <f>'TTS-HDVs-frgt'!Q2</f>
+        <f>Data!V87</f>
         <v>0.99913450136531945</v>
       </c>
       <c r="R2">
-        <f>'TTS-HDVs-frgt'!R2</f>
+        <f>Data!W87</f>
         <v>0.99957000888792158</v>
       </c>
       <c r="S2">
-        <f>'TTS-HDVs-frgt'!S2</f>
+        <f>Data!X87</f>
         <v>0.99978642406827833</v>
       </c>
       <c r="T2">
-        <f>'TTS-HDVs-frgt'!T2</f>
+        <f>Data!Y87</f>
         <v>0.99989392932640198</v>
       </c>
       <c r="U2">
-        <f>'TTS-HDVs-frgt'!U2</f>
+        <f>Data!Z87</f>
         <v>0.99994732390151331</v>
       </c>
       <c r="V2">
-        <f>'TTS-HDVs-frgt'!V2</f>
+        <f>Data!AA87</f>
         <v>0.99997384109344112</v>
       </c>
       <c r="W2">
-        <f>'TTS-HDVs-frgt'!W2</f>
+        <f>Data!AB87</f>
         <v>0.99998700969136967</v>
       </c>
       <c r="X2">
-        <f>'TTS-HDVs-frgt'!X2</f>
+        <f>Data!AC87</f>
         <v>0.99999354915923688</v>
       </c>
       <c r="Y2">
-        <f>'TTS-HDVs-frgt'!Y2</f>
+        <f>Data!AD87</f>
         <v>0.99999679659632945</v>
       </c>
       <c r="Z2">
-        <f>'TTS-HDVs-frgt'!Z2</f>
+        <f>Data!AE87</f>
         <v>0.99999840923411476</v>
       </c>
       <c r="AA2">
-        <f>'TTS-HDVs-frgt'!AA2</f>
+        <f>Data!AF87</f>
         <v>0.99999921004837367</v>
       </c>
       <c r="AB2">
-        <f>'TTS-HDVs-frgt'!AB2</f>
+        <f>Data!AG87</f>
         <v>0.99999960772146745</v>
       </c>
       <c r="AC2">
-        <f>'TTS-HDVs-frgt'!AC2</f>
+        <f>Data!AH87</f>
         <v>0.99999980520020537</v>
       </c>
       <c r="AD2">
-        <f>'TTS-HDVs-frgt'!AD2</f>
+        <f>Data!AI87</f>
         <v>0.99999990326527477</v>
       </c>
       <c r="AE2">
-        <f>'TTS-HDVs-frgt'!AE2</f>
+        <f>Data!AJ87</f>
         <v>0.99999995196295466</v>
       </c>
       <c r="AF2">
-        <f>'TTS-HDVs-frgt'!AF2</f>
+        <f>Data!AK87</f>
         <v>0.99999997614550851</v>
       </c>
       <c r="AG2">
-        <f>'TTS-HDVs-frgt'!AG2</f>
+        <f>Data!AL87</f>
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'TTS-HDVs-frgt'!B3</f>
-        <v>7.2809767943268324E-3</v>
+        <f t="shared" ref="B3:B8" si="0">D3</f>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'TTS-HDVs-frgt'!C3</f>
-        <v>7.2809767943268324E-3</v>
+        <f t="shared" ref="C3:C8" si="1">D3</f>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>'TTS-HDVs-frgt'!D3</f>
-        <v>7.9539756206734417E-3</v>
+        <f>Data!I88</f>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>'TTS-HDVs-frgt'!E3</f>
-        <v>8.1847586969656192E-3</v>
+        <f>Data!J88</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>'TTS-HDVs-frgt'!F3</f>
-        <v>8.4925448911875676E-3</v>
+        <f>Data!K88</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>'TTS-HDVs-frgt'!G3</f>
-        <v>8.9013448244791796E-3</v>
+        <f>Data!L88</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>'TTS-HDVs-frgt'!H3</f>
-        <v>9.4413591225641757E-3</v>
+        <f>Data!M88</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>'TTS-HDVs-frgt'!I3</f>
-        <v>1.0149590832616918E-2</v>
+        <f>Data!N88</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>'TTS-HDVs-frgt'!J3</f>
-        <v>1.1069727778933097E-2</v>
+        <f>Data!O88</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>'TTS-HDVs-frgt'!K3</f>
-        <v>1.2250644800130824E-2</v>
+        <f>Data!P88</f>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>'TTS-HDVs-frgt'!L3</f>
-        <v>1.3742693012081563E-2</v>
+        <f>Data!Q88</f>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>'TTS-HDVs-frgt'!M3</f>
-        <v>1.5590974090003679E-2</v>
+        <f>Data!R88</f>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>'TTS-HDVs-frgt'!N3</f>
-        <v>1.7825325978606671E-2</v>
+        <f>Data!S88</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f>'TTS-HDVs-frgt'!O3</f>
-        <v>2.0448042462451119E-2</v>
+        <f>Data!T88</f>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f>'TTS-HDVs-frgt'!P3</f>
-        <v>2.342233177341109E-2</v>
+        <f>Data!U88</f>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>'TTS-HDVs-frgt'!Q3</f>
-        <v>2.666632080026762E-2</v>
+        <f>Data!V88</f>
+        <v>0</v>
       </c>
       <c r="R3">
-        <f>'TTS-HDVs-frgt'!R3</f>
-        <v>3.0057387469452152E-2</v>
+        <f>Data!W88</f>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f>'TTS-HDVs-frgt'!S3</f>
-        <v>3.3448454138636688E-2</v>
+        <f>Data!X88</f>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f>'TTS-HDVs-frgt'!T3</f>
-        <v>3.6692443165493215E-2</v>
+        <f>Data!Y88</f>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f>'TTS-HDVs-frgt'!U3</f>
-        <v>3.9666732476453186E-2</v>
+        <f>Data!Z88</f>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f>'TTS-HDVs-frgt'!V3</f>
-        <v>4.2289448960297633E-2</v>
+        <f>Data!AA88</f>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f>'TTS-HDVs-frgt'!W3</f>
-        <v>4.4523800848900626E-2</v>
+        <f>Data!AB88</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f>'TTS-HDVs-frgt'!X3</f>
-        <v>4.6372081926822753E-2</v>
+        <f>Data!AC88</f>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <f>'TTS-HDVs-frgt'!Y3</f>
-        <v>4.7864130138773484E-2</v>
+        <f>Data!AD88</f>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f>'TTS-HDVs-frgt'!Z3</f>
-        <v>4.9045047159971211E-2</v>
+        <f>Data!AE88</f>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f>'TTS-HDVs-frgt'!AA3</f>
-        <v>4.9965184106287391E-2</v>
+        <f>Data!AF88</f>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f>'TTS-HDVs-frgt'!AB3</f>
-        <v>5.0673415816340134E-2</v>
+        <f>Data!AG88</f>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f>'TTS-HDVs-frgt'!AC3</f>
-        <v>5.1213430114425126E-2</v>
+        <f>Data!AH88</f>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <f>'TTS-HDVs-frgt'!AD3</f>
-        <v>5.1622230047716738E-2</v>
+        <f>Data!AI88</f>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <f>'TTS-HDVs-frgt'!AE3</f>
-        <v>5.1930016241938694E-2</v>
+        <f>Data!AJ88</f>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f>'TTS-HDVs-frgt'!AF3</f>
-        <v>5.2160799318230866E-2</v>
+        <f>Data!AK88</f>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <f>'TTS-HDVs-frgt'!AG3</f>
-        <v>5.2333311909740617E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'TTS-HDVs-frgt'!B4</f>
-        <v>0.01</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C4">
-        <f>'TTS-HDVs-frgt'!C4</f>
-        <v>0.01</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f>'TTS-HDVs-frgt'!D4</f>
-        <v>0.01</v>
+        <f>Data!I89</f>
+        <v>5</v>
       </c>
       <c r="E4">
-        <f>'TTS-HDVs-frgt'!E4</f>
-        <v>0.01</v>
+        <f>Data!J89</f>
+        <v>5</v>
       </c>
       <c r="F4">
-        <f>'TTS-HDVs-frgt'!F4</f>
-        <v>0.01</v>
+        <f>Data!K89</f>
+        <v>5</v>
       </c>
       <c r="G4">
-        <f>'TTS-HDVs-frgt'!G4</f>
-        <v>0.01</v>
+        <f>Data!L89</f>
+        <v>5</v>
       </c>
       <c r="H4">
-        <f>'TTS-HDVs-frgt'!H4</f>
-        <v>0.01</v>
+        <f>Data!M89</f>
+        <v>5</v>
       </c>
       <c r="I4">
-        <f>'TTS-HDVs-frgt'!I4</f>
-        <v>0.01</v>
+        <f>Data!N89</f>
+        <v>5</v>
       </c>
       <c r="J4">
-        <f>'TTS-HDVs-frgt'!J4</f>
-        <v>0.01</v>
+        <f>Data!O89</f>
+        <v>5</v>
       </c>
       <c r="K4">
-        <f>'TTS-HDVs-frgt'!K4</f>
-        <v>0.01</v>
+        <f>Data!P89</f>
+        <v>5</v>
       </c>
       <c r="L4">
-        <f>'TTS-HDVs-frgt'!L4</f>
-        <v>0.01</v>
+        <f>Data!Q89</f>
+        <v>5</v>
       </c>
       <c r="M4">
-        <f>'TTS-HDVs-frgt'!M4</f>
-        <v>0.01</v>
+        <f>Data!R89</f>
+        <v>5</v>
       </c>
       <c r="N4">
-        <f>'TTS-HDVs-frgt'!N4</f>
-        <v>0.01</v>
+        <f>Data!S89</f>
+        <v>5</v>
       </c>
       <c r="O4">
-        <f>'TTS-HDVs-frgt'!O4</f>
-        <v>0.01</v>
+        <f>Data!T89</f>
+        <v>5</v>
       </c>
       <c r="P4">
-        <f>'TTS-HDVs-frgt'!P4</f>
-        <v>0.01</v>
+        <f>Data!U89</f>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <f>'TTS-HDVs-frgt'!Q4</f>
-        <v>0.01</v>
+        <f>Data!V89</f>
+        <v>5</v>
       </c>
       <c r="R4">
-        <f>'TTS-HDVs-frgt'!R4</f>
-        <v>0.01</v>
+        <f>Data!W89</f>
+        <v>5</v>
       </c>
       <c r="S4">
-        <f>'TTS-HDVs-frgt'!S4</f>
-        <v>0.01</v>
+        <f>Data!X89</f>
+        <v>5</v>
       </c>
       <c r="T4">
-        <f>'TTS-HDVs-frgt'!T4</f>
-        <v>0.01</v>
+        <f>Data!Y89</f>
+        <v>5</v>
       </c>
       <c r="U4">
-        <f>'TTS-HDVs-frgt'!U4</f>
-        <v>0.01</v>
+        <f>Data!Z89</f>
+        <v>5</v>
       </c>
       <c r="V4">
-        <f>'TTS-HDVs-frgt'!V4</f>
-        <v>0.01</v>
+        <f>Data!AA89</f>
+        <v>5</v>
       </c>
       <c r="W4">
-        <f>'TTS-HDVs-frgt'!W4</f>
-        <v>0.01</v>
+        <f>Data!AB89</f>
+        <v>5</v>
       </c>
       <c r="X4">
-        <f>'TTS-HDVs-frgt'!X4</f>
-        <v>0.01</v>
+        <f>Data!AC89</f>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <f>'TTS-HDVs-frgt'!Y4</f>
-        <v>0.01</v>
+        <f>Data!AD89</f>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <f>'TTS-HDVs-frgt'!Z4</f>
-        <v>0.01</v>
+        <f>Data!AE89</f>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <f>'TTS-HDVs-frgt'!AA4</f>
-        <v>0.01</v>
+        <f>Data!AF89</f>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <f>'TTS-HDVs-frgt'!AB4</f>
-        <v>0.01</v>
+        <f>Data!AG89</f>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <f>'TTS-HDVs-frgt'!AC4</f>
-        <v>0.01</v>
+        <f>Data!AH89</f>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <f>'TTS-HDVs-frgt'!AD4</f>
-        <v>0.01</v>
+        <f>Data!AI89</f>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <f>'TTS-HDVs-frgt'!AE4</f>
-        <v>0.01</v>
+        <f>Data!AJ89</f>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <f>'TTS-HDVs-frgt'!AF4</f>
-        <v>0.01</v>
+        <f>Data!AK89</f>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <f>'TTS-HDVs-frgt'!AG4</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL89</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>'TTS-HDVs-frgt'!B5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5">
-        <f>'TTS-HDVs-frgt'!C5</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D5">
-        <f>'TTS-HDVs-frgt'!D5</f>
+        <f>Data!I90</f>
         <v>5</v>
       </c>
       <c r="E5">
-        <f>'TTS-HDVs-frgt'!E5</f>
+        <f>Data!J90</f>
         <v>5</v>
       </c>
       <c r="F5">
-        <f>'TTS-HDVs-frgt'!F5</f>
+        <f>Data!K90</f>
         <v>5</v>
       </c>
       <c r="G5">
-        <f>'TTS-HDVs-frgt'!G5</f>
+        <f>Data!L90</f>
         <v>5</v>
       </c>
       <c r="H5">
-        <f>'TTS-HDVs-frgt'!H5</f>
+        <f>Data!M90</f>
         <v>5</v>
       </c>
       <c r="I5">
-        <f>'TTS-HDVs-frgt'!I5</f>
+        <f>Data!N90</f>
         <v>5</v>
       </c>
       <c r="J5">
-        <f>'TTS-HDVs-frgt'!J5</f>
+        <f>Data!O90</f>
         <v>5</v>
       </c>
       <c r="K5">
-        <f>'TTS-HDVs-frgt'!K5</f>
+        <f>Data!P90</f>
         <v>5</v>
       </c>
       <c r="L5">
-        <f>'TTS-HDVs-frgt'!L5</f>
+        <f>Data!Q90</f>
         <v>5</v>
       </c>
       <c r="M5">
-        <f>'TTS-HDVs-frgt'!M5</f>
+        <f>Data!R90</f>
         <v>5</v>
       </c>
       <c r="N5">
-        <f>'TTS-HDVs-frgt'!N5</f>
+        <f>Data!S90</f>
         <v>5</v>
       </c>
       <c r="O5">
-        <f>'TTS-HDVs-frgt'!O5</f>
+        <f>Data!T90</f>
         <v>5</v>
       </c>
       <c r="P5">
-        <f>'TTS-HDVs-frgt'!P5</f>
+        <f>Data!U90</f>
         <v>5</v>
       </c>
       <c r="Q5">
-        <f>'TTS-HDVs-frgt'!Q5</f>
+        <f>Data!V90</f>
         <v>5</v>
       </c>
       <c r="R5">
-        <f>'TTS-HDVs-frgt'!R5</f>
+        <f>Data!W90</f>
         <v>5</v>
       </c>
       <c r="S5">
-        <f>'TTS-HDVs-frgt'!S5</f>
+        <f>Data!X90</f>
         <v>5</v>
       </c>
       <c r="T5">
-        <f>'TTS-HDVs-frgt'!T5</f>
+        <f>Data!Y90</f>
         <v>5</v>
       </c>
       <c r="U5">
-        <f>'TTS-HDVs-frgt'!U5</f>
+        <f>Data!Z90</f>
         <v>5</v>
       </c>
       <c r="V5">
-        <f>'TTS-HDVs-frgt'!V5</f>
+        <f>Data!AA90</f>
         <v>5</v>
       </c>
       <c r="W5">
-        <f>'TTS-HDVs-frgt'!W5</f>
+        <f>Data!AB90</f>
         <v>5</v>
       </c>
       <c r="X5">
-        <f>'TTS-HDVs-frgt'!X5</f>
+        <f>Data!AC90</f>
         <v>5</v>
       </c>
       <c r="Y5">
-        <f>'TTS-HDVs-frgt'!Y5</f>
+        <f>Data!AD90</f>
         <v>5</v>
       </c>
       <c r="Z5">
-        <f>'TTS-HDVs-frgt'!Z5</f>
+        <f>Data!AE90</f>
         <v>5</v>
       </c>
       <c r="AA5">
-        <f>'TTS-HDVs-frgt'!AA5</f>
+        <f>Data!AF90</f>
         <v>5</v>
       </c>
       <c r="AB5">
-        <f>'TTS-HDVs-frgt'!AB5</f>
+        <f>Data!AG90</f>
         <v>5</v>
       </c>
       <c r="AC5">
-        <f>'TTS-HDVs-frgt'!AC5</f>
+        <f>Data!AH90</f>
         <v>5</v>
       </c>
       <c r="AD5">
-        <f>'TTS-HDVs-frgt'!AD5</f>
+        <f>Data!AI90</f>
         <v>5</v>
       </c>
       <c r="AE5">
-        <f>'TTS-HDVs-frgt'!AE5</f>
+        <f>Data!AJ90</f>
         <v>5</v>
       </c>
       <c r="AF5">
-        <f>'TTS-HDVs-frgt'!AF5</f>
+        <f>Data!AK90</f>
         <v>5</v>
       </c>
       <c r="AG5">
-        <f>'TTS-HDVs-frgt'!AG5</f>
+        <f>Data!AL90</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>'TTS-HDVs-frgt'!B6</f>
-        <v>2.1604589258675129E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'TTS-HDVs-frgt'!C6</f>
-        <v>2.1604589258675129E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'TTS-HDVs-frgt'!D6</f>
-        <v>2.5363121187666543E-3</v>
+        <f>Data!I91</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'TTS-HDVs-frgt'!E6</f>
-        <v>2.6651987567454672E-3</v>
+        <f>Data!J91</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'TTS-HDVs-frgt'!F6</f>
-        <v>2.8370897308450499E-3</v>
+        <f>Data!K91</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'TTS-HDVs-frgt'!G6</f>
-        <v>3.0653943788913106E-3</v>
+        <f>Data!L91</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>'TTS-HDVs-frgt'!H6</f>
-        <v>3.3669790031145663E-3</v>
+        <f>Data!M91</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>'TTS-HDVs-frgt'!I6</f>
-        <v>3.7625088898169965E-3</v>
+        <f>Data!N91</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>'TTS-HDVs-frgt'!J6</f>
-        <v>4.2763826079255159E-3</v>
+        <f>Data!O91</f>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>'TTS-HDVs-frgt'!K6</f>
-        <v>4.9358955455268607E-3</v>
+        <f>Data!P91</f>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>'TTS-HDVs-frgt'!L6</f>
-        <v>5.7691675550270976E-3</v>
+        <f>Data!Q91</f>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>'TTS-HDVs-frgt'!M6</f>
-        <v>6.8013868061113751E-3</v>
+        <f>Data!R91</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>'TTS-HDVs-frgt'!N6</f>
-        <v>8.0492170526371733E-3</v>
+        <f>Data!S91</f>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>'TTS-HDVs-frgt'!O6</f>
-        <v>9.5139393165278099E-3</v>
+        <f>Data!T91</f>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>'TTS-HDVs-frgt'!P6</f>
-        <v>1.1175006305602102E-2</v>
+        <f>Data!U91</f>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>'TTS-HDVs-frgt'!Q6</f>
-        <v>1.298669391298265E-2</v>
+        <f>Data!V91</f>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>'TTS-HDVs-frgt'!R6</f>
-        <v>1.4880520744547505E-2</v>
+        <f>Data!W91</f>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>'TTS-HDVs-frgt'!S6</f>
-        <v>1.6774347576112358E-2</v>
+        <f>Data!X91</f>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f>'TTS-HDVs-frgt'!T6</f>
-        <v>1.8586035183492906E-2</v>
+        <f>Data!Y91</f>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f>'TTS-HDVs-frgt'!U6</f>
-        <v>2.0247102172567196E-2</v>
+        <f>Data!Z91</f>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f>'TTS-HDVs-frgt'!V6</f>
-        <v>2.1711824436457833E-2</v>
+        <f>Data!AA91</f>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f>'TTS-HDVs-frgt'!W6</f>
-        <v>2.2959654682983631E-2</v>
+        <f>Data!AB91</f>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>'TTS-HDVs-frgt'!X6</f>
-        <v>2.399187393406791E-2</v>
+        <f>Data!AC91</f>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f>'TTS-HDVs-frgt'!Y6</f>
-        <v>2.4825145943568147E-2</v>
+        <f>Data!AD91</f>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f>'TTS-HDVs-frgt'!Z6</f>
-        <v>2.5484658881169492E-2</v>
+        <f>Data!AE91</f>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f>'TTS-HDVs-frgt'!AA6</f>
-        <v>2.5998532599278014E-2</v>
+        <f>Data!AF91</f>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f>'TTS-HDVs-frgt'!AB6</f>
-        <v>2.6394062485980443E-2</v>
+        <f>Data!AG91</f>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f>'TTS-HDVs-frgt'!AC6</f>
-        <v>2.6695647110203696E-2</v>
+        <f>Data!AH91</f>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f>'TTS-HDVs-frgt'!AD6</f>
-        <v>2.6923951758249957E-2</v>
+        <f>Data!AI91</f>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f>'TTS-HDVs-frgt'!AE6</f>
-        <v>2.7095842732349541E-2</v>
+        <f>Data!AJ91</f>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f>'TTS-HDVs-frgt'!AF6</f>
-        <v>2.7224729370328354E-2</v>
+        <f>Data!AK91</f>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f>'TTS-HDVs-frgt'!AG6</f>
-        <v>2.7321073384308624E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7">
-        <f>'TTS-HDVs-frgt'!B7</f>
-        <v>1.0208494207686616E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'TTS-HDVs-frgt'!C7</f>
-        <v>1.0208494207686616E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'TTS-HDVs-frgt'!D7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!I92</f>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'TTS-HDVs-frgt'!E7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!J92</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'TTS-HDVs-frgt'!F7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!K92</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'TTS-HDVs-frgt'!G7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!L92</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>'TTS-HDVs-frgt'!H7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!M92</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>'TTS-HDVs-frgt'!I7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!N92</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>'TTS-HDVs-frgt'!J7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!O92</f>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>'TTS-HDVs-frgt'!K7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!P92</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>'TTS-HDVs-frgt'!L7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Q92</f>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>'TTS-HDVs-frgt'!M7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!R92</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>'TTS-HDVs-frgt'!N7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!S92</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>'TTS-HDVs-frgt'!O7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!T92</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>'TTS-HDVs-frgt'!P7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!U92</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>'TTS-HDVs-frgt'!Q7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!V92</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>'TTS-HDVs-frgt'!R7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!W92</f>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>'TTS-HDVs-frgt'!S7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!X92</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>'TTS-HDVs-frgt'!T7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Y92</f>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>'TTS-HDVs-frgt'!U7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!Z92</f>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>'TTS-HDVs-frgt'!V7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AA92</f>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>'TTS-HDVs-frgt'!W7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AB92</f>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>'TTS-HDVs-frgt'!X7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AC92</f>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>'TTS-HDVs-frgt'!Y7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AD92</f>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>'TTS-HDVs-frgt'!Z7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AE92</f>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>'TTS-HDVs-frgt'!AA7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AF92</f>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>'TTS-HDVs-frgt'!AB7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AG92</f>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>'TTS-HDVs-frgt'!AC7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AH92</f>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>'TTS-HDVs-frgt'!AD7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AI92</f>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>'TTS-HDVs-frgt'!AE7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AJ92</f>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>'TTS-HDVs-frgt'!AF7</f>
-        <v>1.0208494207686616E-3</v>
+        <f>Data!AK92</f>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>'TTS-HDVs-frgt'!AG7</f>
-        <v>1.0208494207686616E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <f>Data!AL92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>126</v>
       </c>
       <c r="B8">
-        <f>'TTS-HDVs-frgt'!B8</f>
-        <v>2.2506977162920506E-5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>'TTS-HDVs-frgt'!C8</f>
-        <v>2.2506977162920506E-5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>'TTS-HDVs-frgt'!D8</f>
-        <v>1.1328629514907667E-4</v>
+        <f>Data!I93</f>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>'TTS-HDVs-frgt'!E8</f>
-        <v>1.444161120943459E-4</v>
+        <f>Data!J93</f>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'TTS-HDVs-frgt'!F8</f>
-        <v>1.8593270871116238E-4</v>
+        <f>Data!K93</f>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>'TTS-HDVs-frgt'!G8</f>
-        <v>2.410748243942677E-4</v>
+        <f>Data!L93</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>'TTS-HDVs-frgt'!H8</f>
-        <v>3.139161545181947E-4</v>
+        <f>Data!M93</f>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>'TTS-HDVs-frgt'!I8</f>
-        <v>4.0944795798919357E-4</v>
+        <f>Data!N93</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>'TTS-HDVs-frgt'!J8</f>
-        <v>5.3356318846275704E-4</v>
+        <f>Data!O93</f>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f>'TTS-HDVs-frgt'!K8</f>
-        <v>6.9285446444391488E-4</v>
+        <f>Data!P93</f>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>'TTS-HDVs-frgt'!L8</f>
-        <v>8.9411353619984948E-4</v>
+        <f>Data!Q93</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>'TTS-HDVs-frgt'!M8</f>
-        <v>1.1434240685990161E-3</v>
+        <f>Data!R93</f>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f>'TTS-HDVs-frgt'!N8</f>
-        <v>1.4448108357788989E-3</v>
+        <f>Data!S93</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>'TTS-HDVs-frgt'!O8</f>
-        <v>1.7985832412478915E-3</v>
+        <f>Data!T93</f>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f>'TTS-HDVs-frgt'!P8</f>
-        <v>2.1997785250616603E-3</v>
+        <f>Data!U93</f>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>'TTS-HDVs-frgt'!Q8</f>
-        <v>2.6373530049626742E-3</v>
+        <f>Data!V93</f>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f>'TTS-HDVs-frgt'!R8</f>
-        <v>3.0947664616031096E-3</v>
+        <f>Data!W93</f>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>'TTS-HDVs-frgt'!S8</f>
-        <v>3.5521799182435449E-3</v>
+        <f>Data!X93</f>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f>'TTS-HDVs-frgt'!T8</f>
-        <v>3.989754398144558E-3</v>
+        <f>Data!Y93</f>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>'TTS-HDVs-frgt'!U8</f>
-        <v>4.3909496819583265E-3</v>
+        <f>Data!Z93</f>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f>'TTS-HDVs-frgt'!V8</f>
-        <v>4.7447220874273196E-3</v>
+        <f>Data!AA93</f>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f>'TTS-HDVs-frgt'!W8</f>
-        <v>5.0461088546072024E-3</v>
+        <f>Data!AB93</f>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>'TTS-HDVs-frgt'!X8</f>
-        <v>5.2954193870063697E-3</v>
+        <f>Data!AC93</f>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f>'TTS-HDVs-frgt'!Y8</f>
-        <v>5.4966784587623038E-3</v>
+        <f>Data!AD93</f>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f>'TTS-HDVs-frgt'!Z8</f>
-        <v>5.6559697347434617E-3</v>
+        <f>Data!AE93</f>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f>'TTS-HDVs-frgt'!AA8</f>
-        <v>5.7800849652170248E-3</v>
+        <f>Data!AF93</f>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f>'TTS-HDVs-frgt'!AB8</f>
-        <v>5.875616768688024E-3</v>
+        <f>Data!AG93</f>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f>'TTS-HDVs-frgt'!AC8</f>
-        <v>5.948458098811951E-3</v>
+        <f>Data!AH93</f>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f>'TTS-HDVs-frgt'!AD8</f>
-        <v>6.0036002144950558E-3</v>
+        <f>Data!AI93</f>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f>'TTS-HDVs-frgt'!AE8</f>
-        <v>6.0451168111118727E-3</v>
+        <f>Data!AJ93</f>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f>'TTS-HDVs-frgt'!AF8</f>
-        <v>6.0762466280571414E-3</v>
+        <f>Data!AK93</f>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f>'TTS-HDVs-frgt'!AG8</f>
-        <v>6.0995164686396177E-3</v>
+        <f>Data!AL93</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25440,9 +25440,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -25540,27 +25540,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30019,29 +30019,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30111,7 +30111,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30321,7 +30321,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -30601,7 +30601,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -30741,7 +30741,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31182,9 +31182,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31282,27 +31282,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -31763,7 +31763,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -31873,7 +31873,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -32871,7 +32871,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -33091,7 +33091,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -33649,7 +33649,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -33759,7 +33759,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -34529,7 +34529,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -34749,7 +34749,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -36203,7 +36203,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -36423,7 +36423,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -36533,7 +36533,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -37091,7 +37091,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -37311,7 +37311,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -37641,7 +37641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -37751,7 +37751,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -37971,7 +37971,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -38191,7 +38191,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -38532,7 +38532,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -38752,7 +38752,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -38972,7 +38972,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -40308,7 +40308,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -40423,7 +40423,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -41520,7 +41520,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -41748,7 +41748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -41858,7 +41858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -42748,7 +42748,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -43298,7 +43298,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -43518,7 +43518,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -43738,7 +43738,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -44076,7 +44076,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -44406,7 +44406,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -44516,7 +44516,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -44846,7 +44846,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -44956,7 +44956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -45184,7 +45184,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -45404,7 +45404,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -45624,7 +45624,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -45734,7 +45734,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -46064,7 +46064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46182,7 +46182,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -46418,7 +46418,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -46638,7 +46638,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -46968,7 +46968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -47188,7 +47188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -47303,7 +47303,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -47633,7 +47633,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -48073,7 +48073,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -48183,7 +48183,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -48518,7 +48518,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -48628,7 +48628,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -48738,7 +48738,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -48958,7 +48958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -49178,7 +49178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -49398,7 +49398,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -49628,7 +49628,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -49738,7 +49738,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -49848,7 +49848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -49958,7 +49958,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -50178,7 +50178,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -50288,7 +50288,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -50398,7 +50398,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -50508,7 +50508,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -50618,7 +50618,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -50728,7 +50728,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -50736,7 +50736,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -50846,7 +50846,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -50956,7 +50956,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -51176,7 +51176,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -51286,7 +51286,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -51396,7 +51396,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -51616,7 +51616,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -51726,7 +51726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -51836,7 +51836,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -51954,7 +51954,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -52064,7 +52064,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -52174,7 +52174,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -52284,7 +52284,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -52394,7 +52394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -52724,7 +52724,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -53054,7 +53054,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -53172,7 +53172,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -53290,7 +53290,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -53400,7 +53400,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -53620,7 +53620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -53738,7 +53738,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -53848,7 +53848,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -53958,7 +53958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -54076,7 +54076,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -54186,7 +54186,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -54406,7 +54406,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -54524,7 +54524,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -54634,7 +54634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -54744,7 +54744,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -54752,7 +54752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -54862,7 +54862,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -55082,7 +55082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -55206,18 +55206,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55243,7 +55243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55270,7 +55270,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55298,7 +55298,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55324,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55350,7 +55350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55376,7 +55376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55402,7 +55402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55424,19 +55424,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55462,7 +55462,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55490,7 +55490,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55543,7 +55543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55569,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55595,7 +55595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55634,142 +55634,142 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" s="15" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" s="34" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -55784,7 +55784,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -55797,7 +55797,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -55810,7 +55810,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -55825,17 +55825,17 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
       <c r="K45" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>947</v>
       </c>
@@ -55844,7 +55844,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>948</v>
       </c>
@@ -55853,7 +55853,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>942</v>
       </c>
@@ -55879,22 +55879,22 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="U76" workbookViewId="0">
+      <selection activeCell="AL87" sqref="AL87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -55913,7 +55913,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -55930,7 +55930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -55947,7 +55947,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -55964,12 +55964,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -55983,7 +55983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -56011,7 +56011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -56298,7 +56298,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -56439,7 +56439,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -56578,7 +56578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -56719,7 +56719,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -56859,7 +56859,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C15" t="s">
         <v>125</v>
       </c>
@@ -57000,7 +57000,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -57143,7 +57143,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -57289,7 +57289,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -57568,7 +57568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -57848,7 +57848,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C22" t="s">
         <v>125</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -58131,7 +58131,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -58277,7 +58277,7 @@
         <v>2.9999999646824631</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -58418,7 +58418,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -58698,7 +58698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C29" t="s">
         <v>125</v>
       </c>
@@ -58980,7 +58980,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -59123,7 +59123,7 @@
         <v>7.4343675315878835E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -59268,7 +59268,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -59409,7 +59409,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -59548,7 +59548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -59687,7 +59687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -59828,7 +59828,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C36" t="s">
         <v>125</v>
       </c>
@@ -59969,7 +59969,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -60112,7 +60112,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -60535,7 +60535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -60674,7 +60674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -60813,7 +60813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C43" t="s">
         <v>125</v>
       </c>
@@ -60952,7 +60952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -61238,7 +61238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -61377,7 +61377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -61516,7 +61516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -61655,7 +61655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -61794,7 +61794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -61933,7 +61933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -62074,7 +62074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -62220,7 +62220,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -62638,7 +62638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -62777,7 +62777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -62916,7 +62916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -63057,7 +63057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -63341,7 +63341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -63480,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -63619,7 +63619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -63758,7 +63758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C64" t="s">
         <v>125</v>
       </c>
@@ -63897,7 +63897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -64038,7 +64038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -64183,7 +64183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -64322,7 +64322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -64461,7 +64461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -64600,7 +64600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -64739,7 +64739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C71" t="s">
         <v>125</v>
       </c>
@@ -64878,7 +64878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -65019,7 +65019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -65164,7 +65164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -65303,7 +65303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -65442,7 +65442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -65581,7 +65581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -65720,7 +65720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -66000,7 +66000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -66146,7 +66146,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -66286,7 +66286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -66425,7 +66425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -66565,7 +66565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -66705,7 +66705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C85" t="s">
         <v>125</v>
       </c>
@@ -66845,7 +66845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -66987,7 +66987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -66997,142 +66997,144 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
+      <c r="D87" s="22">
+        <f>D31</f>
+        <v>0.05</v>
+      </c>
+      <c r="E87" s="22">
+        <f>E31</f>
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="str">
         <f>IF(D87=E87,"n/a",IF(OR(C87="battery electric vehicle",C87="natural gas vehicle",C87="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <v>s-curve</v>
       </c>
       <c r="H87" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D87</f>
+        <v>0.05</v>
       </c>
       <c r="I87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,I$9))</f>
+        <v>0.15364198013583233</v>
       </c>
       <c r="J87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,J$9))</f>
+        <v>0.23792530586934735</v>
       </c>
       <c r="K87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,K$9))</f>
+        <v>0.36522161644024215</v>
       </c>
       <c r="L87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,L$9))</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="M87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,M$9))</f>
+        <v>0.68477838355975784</v>
       </c>
       <c r="N87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,N$9))</f>
+        <v>0.81207469413065259</v>
       </c>
       <c r="O87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,O$9))</f>
+        <v>0.89635801986416774</v>
       </c>
       <c r="P87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,P$9))</f>
+        <v>0.94554203289607475</v>
       </c>
       <c r="Q87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Q$9))</f>
+        <v>0.97215338078621139</v>
       </c>
       <c r="R87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,R$9))</f>
+        <v>0.98596466989139064</v>
       </c>
       <c r="S87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,S$9))</f>
+        <v>0.9929780357229322</v>
       </c>
       <c r="T87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,T$9))</f>
+        <v>0.99649997209553587</v>
       </c>
       <c r="U87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,U$9))</f>
+        <v>0.9982587080046319</v>
       </c>
       <c r="V87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,V$9))</f>
+        <v>0.99913450136531945</v>
       </c>
       <c r="W87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,W$9))</f>
+        <v>0.99957000888792158</v>
       </c>
       <c r="X87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,X$9))</f>
+        <v>0.99978642406827833</v>
       </c>
       <c r="Y87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Y$9))</f>
+        <v>0.99989392932640198</v>
       </c>
       <c r="Z87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,Z$9))</f>
+        <v>0.99994732390151331</v>
       </c>
       <c r="AA87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AA$9))</f>
+        <v>0.99997384109344112</v>
       </c>
       <c r="AB87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AB$9))</f>
+        <v>0.99998700969136967</v>
       </c>
       <c r="AC87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AC$9))</f>
+        <v>0.99999354915923688</v>
       </c>
       <c r="AD87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AD$9))</f>
+        <v>0.99999679659632945</v>
       </c>
       <c r="AE87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AE$9))</f>
+        <v>0.99999840923411476</v>
       </c>
       <c r="AF87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AF$9))</f>
+        <v>0.99999921004837367</v>
       </c>
       <c r="AG87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AG$9))</f>
+        <v>0.99999960772146745</v>
       </c>
       <c r="AH87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AH$9))</f>
+        <v>0.99999980520020537</v>
       </c>
       <c r="AI87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AI$9))</f>
+        <v>0.99999990326527477</v>
       </c>
       <c r="AJ87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AJ$9))</f>
+        <v>0.99999995196295466</v>
       </c>
       <c r="AK87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
-        <v>0</v>
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AK$9))</f>
+        <v>0.99999997614550851</v>
       </c>
       <c r="AL87">
-        <f>IF($F87="s-curve",$D87+($E87-$D87)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+        <f>IF($F87="s-curve",$D87+($E87-$D87)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D87:$E87,$D$9:$E$9,AL$9))</f>
+        <v>0.9999999881542101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -67271,15 +67273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89" s="7" t="str">
         <f>IF(D89=E89,"n/a",IF(OR(C89="battery electric vehicle",C89="natural gas vehicle",C89="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -67287,130 +67289,130 @@
       </c>
       <c r="H89" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL89">
         <f>IF($F89="s-curve",$D89+($E89-$D89)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D89:$E89,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -67550,7 +67552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -67689,7 +67691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.75">
       <c r="C92" t="s">
         <v>125</v>
       </c>
@@ -67828,7 +67830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCAB4A-B46B-44A2-A203-E40687351480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73597E-E49A-40EA-9FE3-C00C9C9EF9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3449,97 +3449,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.34012692312920811</c:v>
+                  <c:v>6.6750934139880064E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37636777483692907</c:v>
+                  <c:v>0.11800585298365684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43847127800899277</c:v>
+                  <c:v>0.20583795032700408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53226855948228369</c:v>
+                  <c:v>0.33849410555351556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64999999999999991</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76773144051771625</c:v>
+                  <c:v>0.67150589444648445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86152872199100705</c:v>
+                  <c:v>0.80416204967299587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92363222516307086</c:v>
+                  <c:v>0.89199414701634328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95987307687079193</c:v>
+                  <c:v>0.94324906586011992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97948143847405045</c:v>
+                  <c:v>0.97098089155615719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98965817781470888</c:v>
+                  <c:v>0.98537370862365969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99482592105900269</c:v>
+                  <c:v>0.99268237406916093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9974210320703949</c:v>
+                  <c:v>0.99635260249955848</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99871694274025491</c:v>
+                  <c:v>0.99818539044693211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99936226416391949</c:v>
+                  <c:v>0.99909805931754336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99968316444373162</c:v>
+                  <c:v>0.99955190399899196</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99984262826083659</c:v>
+                  <c:v>0.999777431397469</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99992184266155926</c:v>
+                  <c:v>0.99988946319277672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99996118603269402</c:v>
+                  <c:v>0.99994510596052444</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9999807250162196</c:v>
+                  <c:v>0.99997273966579647</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9999904281936407</c:v>
+                  <c:v>0.99998646273100622</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99999524674891127</c:v>
+                  <c:v>0.99999327754488898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999763959729537</c:v>
+                  <c:v>0.99999666171617496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999882785671601</c:v>
+                  <c:v>0.99999834225449857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999941793038061</c:v>
+                  <c:v>0.99999917678725248</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999971095266016</c:v>
+                  <c:v>0.99999959120447668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999985646330924</c:v>
+                  <c:v>0.9999997969981087</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999992872178134</c:v>
+                  <c:v>0.99999989919223364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999996460428231</c:v>
+                  <c:v>0.99999994994034214</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999998242300614</c:v>
+                  <c:v>0.99999997514110894</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999999127152317</c:v>
+                  <c:v>0.99999998765543996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,21 +4729,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4751,499 +4751,499 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>55</v>
       </c>
@@ -5263,22 +5263,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD8256C-1F66-49FC-AA54-D49BAA990076}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.40625" customWidth="1"/>
-    <col min="3" max="9" width="11.54296875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="9" width="11.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>743.5886494688923</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>14.614802219298447</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -5460,12 +5460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>129</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>13.150652503793626</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -5647,17 +5647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>129</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>3.2526122463528718E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2.1728250476622042E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -5860,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.7230904647520633E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -6102,16 +6102,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -6243,140 +6243,140 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>C2</f>
-        <v>0.34012692312920811</v>
+        <v>6.6750934139880064E-2</v>
       </c>
       <c r="C2">
         <f>Data!H10</f>
-        <v>0.34012692312920811</v>
+        <v>6.6750934139880064E-2</v>
       </c>
       <c r="D2">
         <f>Data!I10</f>
-        <v>0.37636777483692907</v>
+        <v>0.11800585298365684</v>
       </c>
       <c r="E2">
         <f>Data!J10</f>
-        <v>0.43847127800899277</v>
+        <v>0.20583795032700408</v>
       </c>
       <c r="F2">
         <f>Data!K10</f>
-        <v>0.53226855948228369</v>
+        <v>0.33849410555351556</v>
       </c>
       <c r="G2">
         <f>Data!L10</f>
-        <v>0.64999999999999991</v>
+        <v>0.505</v>
       </c>
       <c r="H2">
         <f>Data!M10</f>
-        <v>0.76773144051771625</v>
+        <v>0.67150589444648445</v>
       </c>
       <c r="I2">
         <f>Data!N10</f>
-        <v>0.86152872199100705</v>
+        <v>0.80416204967299587</v>
       </c>
       <c r="J2">
         <f>Data!O10</f>
-        <v>0.92363222516307086</v>
+        <v>0.89199414701634328</v>
       </c>
       <c r="K2">
         <f>Data!P10</f>
-        <v>0.95987307687079193</v>
+        <v>0.94324906586011992</v>
       </c>
       <c r="L2">
         <f>Data!Q10</f>
-        <v>0.97948143847405045</v>
+        <v>0.97098089155615719</v>
       </c>
       <c r="M2">
         <f>Data!R10</f>
-        <v>0.98965817781470888</v>
+        <v>0.98537370862365969</v>
       </c>
       <c r="N2">
         <f>Data!S10</f>
-        <v>0.99482592105900269</v>
+        <v>0.99268237406916093</v>
       </c>
       <c r="O2">
         <f>Data!T10</f>
-        <v>0.9974210320703949</v>
+        <v>0.99635260249955848</v>
       </c>
       <c r="P2">
         <f>Data!U10</f>
-        <v>0.99871694274025491</v>
+        <v>0.99818539044693211</v>
       </c>
       <c r="Q2">
         <f>Data!V10</f>
-        <v>0.99936226416391949</v>
+        <v>0.99909805931754336</v>
       </c>
       <c r="R2">
         <f>Data!W10</f>
-        <v>0.99968316444373162</v>
+        <v>0.99955190399899196</v>
       </c>
       <c r="S2">
         <f>Data!X10</f>
-        <v>0.99984262826083659</v>
+        <v>0.999777431397469</v>
       </c>
       <c r="T2">
         <f>Data!Y10</f>
-        <v>0.99992184266155926</v>
+        <v>0.99988946319277672</v>
       </c>
       <c r="U2">
         <f>Data!Z10</f>
-        <v>0.99996118603269402</v>
+        <v>0.99994510596052444</v>
       </c>
       <c r="V2">
         <f>Data!AA10</f>
-        <v>0.9999807250162196</v>
+        <v>0.99997273966579647</v>
       </c>
       <c r="W2">
         <f>Data!AB10</f>
-        <v>0.9999904281936407</v>
+        <v>0.99998646273100622</v>
       </c>
       <c r="X2">
         <f>Data!AC10</f>
-        <v>0.99999524674891127</v>
+        <v>0.99999327754488898</v>
       </c>
       <c r="Y2">
         <f>Data!AD10</f>
-        <v>0.99999763959729537</v>
+        <v>0.99999666171617496</v>
       </c>
       <c r="Z2">
         <f>Data!AE10</f>
-        <v>0.99999882785671601</v>
+        <v>0.99999834225449857</v>
       </c>
       <c r="AA2">
         <f>Data!AF10</f>
-        <v>0.99999941793038061</v>
+        <v>0.99999917678725248</v>
       </c>
       <c r="AB2">
         <f>Data!AG10</f>
-        <v>0.99999971095266016</v>
+        <v>0.99999959120447668</v>
       </c>
       <c r="AC2">
         <f>Data!AH10</f>
-        <v>0.99999985646330924</v>
+        <v>0.9999997969981087</v>
       </c>
       <c r="AD2">
         <f>Data!AI10</f>
-        <v>0.99999992872178134</v>
+        <v>0.99999989919223364</v>
       </c>
       <c r="AE2">
         <f>Data!AJ10</f>
-        <v>0.99999996460428231</v>
+        <v>0.99999994994034214</v>
       </c>
       <c r="AF2">
         <f>Data!AK10</f>
-        <v>0.99999998242300614</v>
+        <v>0.99999997514110894</v>
       </c>
       <c r="AG2">
         <f>Data!AL10</f>
-        <v>0.99999999127152317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+        <v>0.99999998765543996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -7190,12 +7190,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -8274,12 +8274,12 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -9337,12 +9337,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -10421,12 +10421,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -11505,12 +11505,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12589,12 +12589,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -13673,12 +13673,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -14757,12 +14757,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -15836,9 +15836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15936,27 +15936,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22188,12 +22188,12 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -23272,12 +23272,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -24352,16 +24352,16 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -25440,9 +25440,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -25540,27 +25540,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30019,29 +30019,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30111,7 +30111,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30321,7 +30321,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -30601,7 +30601,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -30741,7 +30741,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31182,9 +31182,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31282,27 +31282,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -31763,7 +31763,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -31873,7 +31873,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -32871,7 +32871,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -33091,7 +33091,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -33649,7 +33649,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -33759,7 +33759,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -34529,7 +34529,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -34749,7 +34749,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -36203,7 +36203,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -36423,7 +36423,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -36533,7 +36533,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -37091,7 +37091,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -37311,7 +37311,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -37641,7 +37641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -37751,7 +37751,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -37971,7 +37971,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -38081,7 +38081,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -38191,7 +38191,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -38532,7 +38532,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -38752,7 +38752,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -38972,7 +38972,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -40308,7 +40308,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -40423,7 +40423,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -41520,7 +41520,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -41528,7 +41528,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -41748,7 +41748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -41858,7 +41858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -42748,7 +42748,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -43078,7 +43078,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -43298,7 +43298,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -43518,7 +43518,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -43738,7 +43738,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -44076,7 +44076,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -44406,7 +44406,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -44516,7 +44516,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -44846,7 +44846,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -44956,7 +44956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -45184,7 +45184,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -45404,7 +45404,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -45624,7 +45624,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -45734,7 +45734,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -46064,7 +46064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46182,7 +46182,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -46308,7 +46308,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -46418,7 +46418,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -46638,7 +46638,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -46968,7 +46968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -47188,7 +47188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -47295,7 +47295,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -47303,7 +47303,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -47523,7 +47523,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -47633,7 +47633,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -48073,7 +48073,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -48183,7 +48183,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -48518,7 +48518,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -48628,7 +48628,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -48738,7 +48738,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -48958,7 +48958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -49178,7 +49178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -49398,7 +49398,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -49628,7 +49628,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -49738,7 +49738,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -49848,7 +49848,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -49958,7 +49958,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -50178,7 +50178,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -50288,7 +50288,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -50398,7 +50398,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -50508,7 +50508,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -50618,7 +50618,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -50728,7 +50728,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -50736,7 +50736,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -50846,7 +50846,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -50956,7 +50956,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -51176,7 +51176,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -51286,7 +51286,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -51396,7 +51396,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -51616,7 +51616,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -51726,7 +51726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -51836,7 +51836,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -51954,7 +51954,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -52064,7 +52064,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -52174,7 +52174,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -52284,7 +52284,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -52394,7 +52394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -52614,7 +52614,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -52724,7 +52724,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -53054,7 +53054,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -53172,7 +53172,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -53290,7 +53290,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -53400,7 +53400,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -53620,7 +53620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -53738,7 +53738,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -53848,7 +53848,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -53958,7 +53958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -54076,7 +54076,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -54186,7 +54186,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -54406,7 +54406,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -54524,7 +54524,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -54634,7 +54634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -54744,7 +54744,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -54752,7 +54752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -54862,7 +54862,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -55082,7 +55082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -55206,18 +55206,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55243,7 +55243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55270,7 +55270,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55298,7 +55298,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55324,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55350,7 +55350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55376,7 +55376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55402,7 +55402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55424,19 +55424,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -55462,7 +55462,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55490,7 +55490,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55543,7 +55543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55569,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55595,7 +55595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55630,146 +55630,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.40625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -55784,7 +55784,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -55797,7 +55797,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -55810,7 +55810,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -55825,17 +55825,17 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>947</v>
       </c>
@@ -55844,7 +55844,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>948</v>
       </c>
@@ -55853,7 +55853,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>942</v>
       </c>
@@ -55879,22 +55879,22 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="U76" workbookViewId="0">
-      <selection activeCell="AL87" sqref="AL87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -55913,7 +55913,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -55930,7 +55930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -55947,7 +55947,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -55964,12 +55964,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -55983,7 +55983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -56011,7 +56011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -56164,7 +56164,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="22">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -56175,130 +56175,130 @@
       </c>
       <c r="H10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:H$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,H$9))</f>
-        <v>0.34012692312920811</v>
+        <v>6.6750934139880064E-2</v>
       </c>
       <c r="I10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>0.37636777483692907</v>
+        <v>0.11800585298365684</v>
       </c>
       <c r="J10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>0.43847127800899277</v>
+        <v>0.20583795032700408</v>
       </c>
       <c r="K10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>0.53226855948228369</v>
+        <v>0.33849410555351556</v>
       </c>
       <c r="L10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>0.64999999999999991</v>
+        <v>0.505</v>
       </c>
       <c r="M10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>0.76773144051771625</v>
+        <v>0.67150589444648445</v>
       </c>
       <c r="N10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>0.86152872199100705</v>
+        <v>0.80416204967299587</v>
       </c>
       <c r="O10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.92363222516307086</v>
+        <v>0.89199414701634328</v>
       </c>
       <c r="P10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.95987307687079193</v>
+        <v>0.94324906586011992</v>
       </c>
       <c r="Q10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.97948143847405045</v>
+        <v>0.97098089155615719</v>
       </c>
       <c r="R10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.98965817781470888</v>
+        <v>0.98537370862365969</v>
       </c>
       <c r="S10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.99482592105900269</v>
+        <v>0.99268237406916093</v>
       </c>
       <c r="T10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.9974210320703949</v>
+        <v>0.99635260249955848</v>
       </c>
       <c r="U10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.99871694274025491</v>
+        <v>0.99818539044693211</v>
       </c>
       <c r="V10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.99936226416391949</v>
+        <v>0.99909805931754336</v>
       </c>
       <c r="W10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.99968316444373162</v>
+        <v>0.99955190399899196</v>
       </c>
       <c r="X10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.99984262826083659</v>
+        <v>0.999777431397469</v>
       </c>
       <c r="Y10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.99992184266155926</v>
+        <v>0.99988946319277672</v>
       </c>
       <c r="Z10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.99996118603269402</v>
+        <v>0.99994510596052444</v>
       </c>
       <c r="AA10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.9999807250162196</v>
+        <v>0.99997273966579647</v>
       </c>
       <c r="AB10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.9999904281936407</v>
+        <v>0.99998646273100622</v>
       </c>
       <c r="AC10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.99999524674891127</v>
+        <v>0.99999327754488898</v>
       </c>
       <c r="AD10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.99999763959729537</v>
+        <v>0.99999666171617496</v>
       </c>
       <c r="AE10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.99999882785671601</v>
+        <v>0.99999834225449857</v>
       </c>
       <c r="AF10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.99999941793038061</v>
+        <v>0.99999917678725248</v>
       </c>
       <c r="AG10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.99999971095266016</v>
+        <v>0.99999959120447668</v>
       </c>
       <c r="AH10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.99999985646330924</v>
+        <v>0.9999997969981087</v>
       </c>
       <c r="AI10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.99999992872178134</v>
+        <v>0.99999989919223364</v>
       </c>
       <c r="AJ10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.99999996460428231</v>
+        <v>0.99999994994034214</v>
       </c>
       <c r="AK10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.99999998242300614</v>
+        <v>0.99999997514110894</v>
       </c>
       <c r="AL10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.99999999127152317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.75">
+        <v>0.99999998765543996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -56439,7 +56439,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -56578,7 +56578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -56719,7 +56719,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -56859,7 +56859,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>125</v>
       </c>
@@ -57000,7 +57000,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -57143,7 +57143,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -57289,7 +57289,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -57568,7 +57568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -57848,7 +57848,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>125</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -58131,7 +58131,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -58277,7 +58277,7 @@
         <v>2.9999999646824631</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -58418,7 +58418,7 @@
         <v>0.40583770376851647</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>0.18329648614468369</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -58698,7 +58698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>125</v>
       </c>
@@ -58980,7 +58980,7 @@
         <v>3.7328528943225026E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -59123,7 +59123,7 @@
         <v>7.4343675315878835E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -59268,7 +59268,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -59409,7 +59409,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -59548,7 +59548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -59687,7 +59687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -59828,7 +59828,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>125</v>
       </c>
@@ -59969,7 +59969,7 @@
         <v>1.0208494207686616E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -60112,7 +60112,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -60535,7 +60535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -60674,7 +60674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -60813,7 +60813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>125</v>
       </c>
@@ -60952,7 +60952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -61093,7 +61093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -61238,7 +61238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -61377,7 +61377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -61516,7 +61516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -61655,7 +61655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -61794,7 +61794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -61933,7 +61933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -62074,7 +62074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -62220,7 +62220,7 @@
         <v>0.99773440411753278</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -62638,7 +62638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -62777,7 +62777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -62916,7 +62916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -63057,7 +63057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -63202,7 +63202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -63341,7 +63341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -63480,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -63619,7 +63619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -63758,7 +63758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>125</v>
       </c>
@@ -63897,7 +63897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -64038,7 +64038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -64183,7 +64183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -64322,7 +64322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -64461,7 +64461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -64600,7 +64600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -64739,7 +64739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>125</v>
       </c>
@@ -64878,7 +64878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -65019,7 +65019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -65164,7 +65164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -65303,7 +65303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -65442,7 +65442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -65581,7 +65581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -65720,7 +65720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -66000,7 +66000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -66146,7 +66146,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -66286,7 +66286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -66425,7 +66425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -66565,7 +66565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -66705,7 +66705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>125</v>
       </c>
@@ -66845,7 +66845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -66987,7 +66987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -67134,7 +67134,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -67273,7 +67273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -67412,7 +67412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -67552,7 +67552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -67691,7 +67691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>125</v>
       </c>
@@ -67830,7 +67830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73597E-E49A-40EA-9FE3-C00C9C9EF9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02EAFC-D13B-4D6F-BA01-58D2D89F2A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="465" windowWidth="15675" windowHeight="16950" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3449,97 +3449,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6.6750934139880064E-2</c:v>
+                  <c:v>0.15159175830898189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11800585298365684</c:v>
+                  <c:v>0.19818713907605168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20583795032700408</c:v>
+                  <c:v>0.27803450029727644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33849410555351556</c:v>
+                  <c:v>0.39863100504865046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.505</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67150589444648445</c:v>
+                  <c:v>0.70136899495134952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80416204967299587</c:v>
+                  <c:v>0.82196549970272348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89199414701634328</c:v>
+                  <c:v>0.90181286092394841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94324906586011992</c:v>
+                  <c:v>0.94840824169101812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97098089155615719</c:v>
+                  <c:v>0.97361899232377924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98537370862365969</c:v>
+                  <c:v>0.98670337147605425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99268237406916093</c:v>
+                  <c:v>0.99334761279014627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99635260249955848</c:v>
+                  <c:v>0.99668418409050774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99818539044693211</c:v>
+                  <c:v>0.9983503549517565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99909805931754336</c:v>
+                  <c:v>0.9991800539250395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99955190399899196</c:v>
+                  <c:v>0.99959263999908354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.999777431397469</c:v>
+                  <c:v>0.99979766490679001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99988946319277672</c:v>
+                  <c:v>0.99989951199343341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99994510596052444</c:v>
+                  <c:v>0.99995009632774945</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99997273966579647</c:v>
+                  <c:v>0.99997521787799681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99998646273100622</c:v>
+                  <c:v>0.99998769339182381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99999327754488898</c:v>
+                  <c:v>0.99999388867717176</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999666171617496</c:v>
+                  <c:v>0.9999969651965227</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999834225449857</c:v>
+                  <c:v>0.99999849295863508</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999917678725248</c:v>
+                  <c:v>0.99999925162477499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999959120447668</c:v>
+                  <c:v>0.99999962836770606</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9999997969981087</c:v>
+                  <c:v>0.99999981545282612</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999989919223364</c:v>
+                  <c:v>0.99999990835657604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999994994034214</c:v>
+                  <c:v>0.99999995449122014</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999997514110894</c:v>
+                  <c:v>0.9999999774010081</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999998765543996</c:v>
+                  <c:v>0.99999998877767271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,131 +6249,131 @@
       </c>
       <c r="B2">
         <f>C2</f>
-        <v>6.6750934139880064E-2</v>
+        <v>0.15159175830898189</v>
       </c>
       <c r="C2">
         <f>Data!H10</f>
-        <v>6.6750934139880064E-2</v>
+        <v>0.15159175830898189</v>
       </c>
       <c r="D2">
         <f>Data!I10</f>
-        <v>0.11800585298365684</v>
+        <v>0.19818713907605168</v>
       </c>
       <c r="E2">
         <f>Data!J10</f>
-        <v>0.20583795032700408</v>
+        <v>0.27803450029727644</v>
       </c>
       <c r="F2">
         <f>Data!K10</f>
-        <v>0.33849410555351556</v>
+        <v>0.39863100504865046</v>
       </c>
       <c r="G2">
         <f>Data!L10</f>
-        <v>0.505</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2">
         <f>Data!M10</f>
-        <v>0.67150589444648445</v>
+        <v>0.70136899495134952</v>
       </c>
       <c r="I2">
         <f>Data!N10</f>
-        <v>0.80416204967299587</v>
+        <v>0.82196549970272348</v>
       </c>
       <c r="J2">
         <f>Data!O10</f>
-        <v>0.89199414701634328</v>
+        <v>0.90181286092394841</v>
       </c>
       <c r="K2">
         <f>Data!P10</f>
-        <v>0.94324906586011992</v>
+        <v>0.94840824169101812</v>
       </c>
       <c r="L2">
         <f>Data!Q10</f>
-        <v>0.97098089155615719</v>
+        <v>0.97361899232377924</v>
       </c>
       <c r="M2">
         <f>Data!R10</f>
-        <v>0.98537370862365969</v>
+        <v>0.98670337147605425</v>
       </c>
       <c r="N2">
         <f>Data!S10</f>
-        <v>0.99268237406916093</v>
+        <v>0.99334761279014627</v>
       </c>
       <c r="O2">
         <f>Data!T10</f>
-        <v>0.99635260249955848</v>
+        <v>0.99668418409050774</v>
       </c>
       <c r="P2">
         <f>Data!U10</f>
-        <v>0.99818539044693211</v>
+        <v>0.9983503549517565</v>
       </c>
       <c r="Q2">
         <f>Data!V10</f>
-        <v>0.99909805931754336</v>
+        <v>0.9991800539250395</v>
       </c>
       <c r="R2">
         <f>Data!W10</f>
-        <v>0.99955190399899196</v>
+        <v>0.99959263999908354</v>
       </c>
       <c r="S2">
         <f>Data!X10</f>
-        <v>0.999777431397469</v>
+        <v>0.99979766490679001</v>
       </c>
       <c r="T2">
         <f>Data!Y10</f>
-        <v>0.99988946319277672</v>
+        <v>0.99989951199343341</v>
       </c>
       <c r="U2">
         <f>Data!Z10</f>
-        <v>0.99994510596052444</v>
+        <v>0.99995009632774945</v>
       </c>
       <c r="V2">
         <f>Data!AA10</f>
-        <v>0.99997273966579647</v>
+        <v>0.99997521787799681</v>
       </c>
       <c r="W2">
         <f>Data!AB10</f>
-        <v>0.99998646273100622</v>
+        <v>0.99998769339182381</v>
       </c>
       <c r="X2">
         <f>Data!AC10</f>
-        <v>0.99999327754488898</v>
+        <v>0.99999388867717176</v>
       </c>
       <c r="Y2">
         <f>Data!AD10</f>
-        <v>0.99999666171617496</v>
+        <v>0.9999969651965227</v>
       </c>
       <c r="Z2">
         <f>Data!AE10</f>
-        <v>0.99999834225449857</v>
+        <v>0.99999849295863508</v>
       </c>
       <c r="AA2">
         <f>Data!AF10</f>
-        <v>0.99999917678725248</v>
+        <v>0.99999925162477499</v>
       </c>
       <c r="AB2">
         <f>Data!AG10</f>
-        <v>0.99999959120447668</v>
+        <v>0.99999962836770606</v>
       </c>
       <c r="AC2">
         <f>Data!AH10</f>
-        <v>0.9999997969981087</v>
+        <v>0.99999981545282612</v>
       </c>
       <c r="AD2">
         <f>Data!AI10</f>
-        <v>0.99999989919223364</v>
+        <v>0.99999990835657604</v>
       </c>
       <c r="AE2">
         <f>Data!AJ10</f>
-        <v>0.99999994994034214</v>
+        <v>0.99999995449122014</v>
       </c>
       <c r="AF2">
         <f>Data!AK10</f>
-        <v>0.99999997514110894</v>
+        <v>0.9999999774010081</v>
       </c>
       <c r="AG2">
         <f>Data!AL10</f>
-        <v>0.99999998765543996</v>
+        <v>0.99999998877767271</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -55880,7 +55880,7 @@
   <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56164,7 +56164,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -56175,127 +56175,127 @@
       </c>
       <c r="H10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:H$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,H$9))</f>
-        <v>6.6750934139880064E-2</v>
+        <v>0.15159175830898189</v>
       </c>
       <c r="I10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>0.11800585298365684</v>
+        <v>0.19818713907605168</v>
       </c>
       <c r="J10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>0.20583795032700408</v>
+        <v>0.27803450029727644</v>
       </c>
       <c r="K10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>0.33849410555351556</v>
+        <v>0.39863100504865046</v>
       </c>
       <c r="L10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>0.505</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>0.67150589444648445</v>
+        <v>0.70136899495134952</v>
       </c>
       <c r="N10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>0.80416204967299587</v>
+        <v>0.82196549970272348</v>
       </c>
       <c r="O10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.89199414701634328</v>
+        <v>0.90181286092394841</v>
       </c>
       <c r="P10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.94324906586011992</v>
+        <v>0.94840824169101812</v>
       </c>
       <c r="Q10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.97098089155615719</v>
+        <v>0.97361899232377924</v>
       </c>
       <c r="R10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.98537370862365969</v>
+        <v>0.98670337147605425</v>
       </c>
       <c r="S10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.99268237406916093</v>
+        <v>0.99334761279014627</v>
       </c>
       <c r="T10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.99635260249955848</v>
+        <v>0.99668418409050774</v>
       </c>
       <c r="U10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.99818539044693211</v>
+        <v>0.9983503549517565</v>
       </c>
       <c r="V10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.99909805931754336</v>
+        <v>0.9991800539250395</v>
       </c>
       <c r="W10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.99955190399899196</v>
+        <v>0.99959263999908354</v>
       </c>
       <c r="X10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.999777431397469</v>
+        <v>0.99979766490679001</v>
       </c>
       <c r="Y10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.99988946319277672</v>
+        <v>0.99989951199343341</v>
       </c>
       <c r="Z10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.99994510596052444</v>
+        <v>0.99995009632774945</v>
       </c>
       <c r="AA10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.99997273966579647</v>
+        <v>0.99997521787799681</v>
       </c>
       <c r="AB10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.99998646273100622</v>
+        <v>0.99998769339182381</v>
       </c>
       <c r="AC10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.99999327754488898</v>
+        <v>0.99999388867717176</v>
       </c>
       <c r="AD10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.99999666171617496</v>
+        <v>0.9999969651965227</v>
       </c>
       <c r="AE10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.99999834225449857</v>
+        <v>0.99999849295863508</v>
       </c>
       <c r="AF10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.99999917678725248</v>
+        <v>0.99999925162477499</v>
       </c>
       <c r="AG10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.99999959120447668</v>
+        <v>0.99999962836770606</v>
       </c>
       <c r="AH10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.9999997969981087</v>
+        <v>0.99999981545282612</v>
       </c>
       <c r="AI10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.99999989919223364</v>
+        <v>0.99999990835657604</v>
       </c>
       <c r="AJ10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.99999994994034214</v>
+        <v>0.99999995449122014</v>
       </c>
       <c r="AK10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.99999997514110894</v>
+        <v>0.9999999774010081</v>
       </c>
       <c r="AL10">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.99999998765543996</v>
+        <v>0.99999998877767271</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
